--- a/notebooks/camadas_gustavo.xlsx
+++ b/notebooks/camadas_gustavo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,41 +1734,37 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>arvore</t>
+          <t>aterro_rcc</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[{"cd_identificador": "string"}, {"nm_vulgar_especie": "string"}, {"dc_nm_popular": "string"}, {"cd_especie": "int"}, {"dc_especie": "string"}, {"cd_identificador_arvore_sisgau": "string"}, {"cd_tipo_porte": "int"}, {"dc_tipo_porte": "string"}, {"qt_diametro_peito_dap": "number"}, {"qt_altura_arvore": "number"}, {"qt_diametro_copa": "number"}, {"cd_tipo_estado_geral": "int"}, {"dc_tipo_estado_geral": "string"}, {"nm_logradouro_referencia": "string"}, {"nr_logradouro_referencia": "int"}, {"sg_distrito_municipal": "string"}, {"nm_distrito_municipal": "string"}, {"nm_subprefeitura": "string"}, {"cd_inspecao": "int"}, {"dt_inspecao": "date"}, {"dt_atualizacao_sisgau": "date"}, {"ge_ponto": "Point"}]</t>
+          <t>[{"cd_identificador_aterro_rcc": "int"}, {"cd_identificador_original": "int"}, {"nm_aterro_rcc": "string"}, {"nm_endereco": "string"}, {"ge_ponto": "Point"}]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['cd_identificador', 'nm_vulgar_especie', 'dc_nm_popular', 'cd_especie', 'dc_especie', 'cd_identificador_arvore_sisgau', 'cd_tipo_porte', 'dc_tipo_porte', 'qt_diametro_peito_dap', 'qt_altura_arvore', 'qt_diametro_copa', 'cd_tipo_estado_geral', 'dc_tipo_estado_geral', 'nm_logradouro_referencia', 'nr_logradouro_referencia', 'sg_distrito_municipal', 'nm_distrito_municipal', 'nm_subprefeitura', 'cd_inspecao', 'dt_inspecao', 'dt_atualizacao_sisgau', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_aterro_rcc', 'cd_identificador_original', 'nm_aterro_rcc', 'nm_endereco', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cd_identificador</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>{'cd_identificador': 'cd_identificador_arvore'}</t>
-        </is>
-      </c>
+          <t>cd_identificador_aterro_rcc</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cd_identificador_arvore</t>
+          <t>cd_identificador_aterro_rcc</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['cd_identificador_arvore', 'nm_vulgar_especie', 'dc_nm_popular', 'cd_especie', 'dc_especie', 'cd_identificador_arvore_sisgau', 'cd_tipo_porte', 'dc_tipo_porte', 'qt_diametro_peito_dap', 'qt_altura_arvore', 'qt_diametro_copa', 'cd_tipo_estado_geral', 'dc_tipo_estado_geral', 'nm_logradouro_referencia', 'nr_logradouro_referencia', 'sg_distrito_municipal', 'nm_distrito_municipal', 'nm_subprefeitura', 'cd_inspecao', 'dt_inspecao', 'dt_atualizacao_sisgau', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_aterro_rcc', 'cd_identificador_original', 'nm_aterro_rcc', 'nm_endereco', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1779,37 +1775,37 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>aterro_rcc</t>
+          <t>aterro_sanitario</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_aterro_rcc": "int"}, {"cd_identificador_original": "int"}, {"nm_aterro_rcc": "string"}, {"nm_endereco": "string"}, {"ge_ponto": "Point"}]</t>
+          <t>[{"cd_identificador_aterro_sanitario": "int"}, {"cd_identificador_original": "int"}, {"nm_aterro_sanitario": "string"}, {"nm_endereco": "string"}, {"tx_status_aterro_sanitario": "string"}, {"nm_concessionaria": "string"}, {"ge_ponto": "Point"}]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['cd_identificador_aterro_rcc', 'cd_identificador_original', 'nm_aterro_rcc', 'nm_endereco', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_aterro_sanitario', 'cd_identificador_original', 'nm_aterro_sanitario', 'nm_endereco', 'tx_status_aterro_sanitario', 'nm_concessionaria', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cd_identificador_aterro_rcc</t>
+          <t>cd_identificador_aterro_sanitario</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cd_identificador_aterro_rcc</t>
+          <t>cd_identificador_aterro_sanitario</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['cd_identificador_aterro_rcc', 'cd_identificador_original', 'nm_aterro_rcc', 'nm_endereco', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_aterro_sanitario', 'cd_identificador_original', 'nm_aterro_sanitario', 'nm_endereco', 'tx_status_aterro_sanitario', 'nm_concessionaria', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1820,37 +1816,37 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>aterro_sanitario</t>
+          <t>bacia_hidrografica</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_aterro_sanitario": "int"}, {"cd_identificador_original": "int"}, {"nm_aterro_sanitario": "string"}, {"nm_endereco": "string"}, {"tx_status_aterro_sanitario": "string"}, {"nm_concessionaria": "string"}, {"ge_ponto": "Point"}]</t>
+          <t>[{"cd_identificador_bacia_hidrografica": "number"}, {"ge_poligono": "Polygon"}, {"sg_fonte_original": "string"}, {"qt_area": "number"}, {"nm_bacia_hidrografica": "string"}, {"cd_identificador_original_bacia_hidrografica": "string"}, {"nm_bacia_hidrografica_principal": "string"}]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['cd_identificador_aterro_sanitario', 'cd_identificador_original', 'nm_aterro_sanitario', 'nm_endereco', 'tx_status_aterro_sanitario', 'nm_concessionaria', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_bacia_hidrografica', 'ge_poligono', 'sg_fonte_original', 'qt_area', 'nm_bacia_hidrografica', 'cd_identificador_original_bacia_hidrografica', 'nm_bacia_hidrografica_principal', 'geometry']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cd_identificador_aterro_sanitario</t>
+          <t>cd_identificador_bacia_hidrografica</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cd_identificador_aterro_sanitario</t>
+          <t>cd_identificador_bacia_hidrografica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['cd_identificador_aterro_sanitario', 'cd_identificador_original', 'nm_aterro_sanitario', 'nm_endereco', 'tx_status_aterro_sanitario', 'nm_concessionaria', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_bacia_hidrografica', 'ge_poligono', 'sg_fonte_original', 'qt_area', 'nm_bacia_hidrografica', 'cd_identificador_original_bacia_hidrografica', 'nm_bacia_hidrografica_principal', 'geometry']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1861,37 +1857,37 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bacia_hidrografica</t>
+          <t>central_triagem_cooperativa</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_bacia_hidrografica": "number"}, {"ge_poligono": "Polygon"}, {"sg_fonte_original": "string"}, {"qt_area": "number"}, {"nm_bacia_hidrografica": "string"}, {"cd_identificador_original_bacia_hidrografica": "string"}, {"nm_bacia_hidrografica_principal": "string"}]</t>
+          <t>[{"cd_identificador_central_triagem_cooperativa": "int"}, {"cd_identificador_original": "int"}, {"nm_cooperativa": "string"}, {"nm_endereco": "string"}, {"tx_especialidade": "string"}, {"tx_link_informacao": "string"}, {"ge_ponto": "Point"}]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['cd_identificador_bacia_hidrografica', 'ge_poligono', 'sg_fonte_original', 'qt_area', 'nm_bacia_hidrografica', 'cd_identificador_original_bacia_hidrografica', 'nm_bacia_hidrografica_principal', 'geometry']</t>
+          <t>['cd_identificador_central_triagem_cooperativa', 'cd_identificador_original', 'nm_cooperativa', 'nm_endereco', 'tx_especialidade', 'tx_link_informacao', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cd_identificador_bacia_hidrografica</t>
+          <t>cd_identificador_central_triagem_cooperativa</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cd_identificador_bacia_hidrografica</t>
+          <t>cd_identificador_central_triagem_cooperativa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['cd_identificador_bacia_hidrografica', 'ge_poligono', 'sg_fonte_original', 'qt_area', 'nm_bacia_hidrografica', 'cd_identificador_original_bacia_hidrografica', 'nm_bacia_hidrografica_principal', 'geometry']</t>
+          <t>['cd_identificador_central_triagem_cooperativa', 'cd_identificador_original', 'nm_cooperativa', 'nm_endereco', 'tx_especialidade', 'tx_link_informacao', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1902,37 +1898,37 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>central_triagem_cooperativa</t>
+          <t>central_triagem_mecanizada</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_central_triagem_cooperativa": "int"}, {"cd_identificador_original": "int"}, {"nm_cooperativa": "string"}, {"nm_endereco": "string"}, {"tx_especialidade": "string"}, {"tx_link_informacao": "string"}, {"ge_ponto": "Point"}]</t>
+          <t>[{"cd_identificador_central_triagem_mecanizada": "int"}, {"cd_identificador_original": "int"}, {"nm_central_triagem_mecanizada": "string"}, {"nm_endereco": "string"}, {"qt_di_capacidade_tonelada": "number"}, {"tx_quantitativo": "string"}, {"ge_ponto": "Point"}]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['cd_identificador_central_triagem_cooperativa', 'cd_identificador_original', 'nm_cooperativa', 'nm_endereco', 'tx_especialidade', 'tx_link_informacao', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_central_triagem_mecanizada', 'cd_identificador_original', 'nm_central_triagem_mecanizada', 'nm_endereco', 'qt_di_capacidade_tonelada', 'tx_quantitativo', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cd_identificador_central_triagem_cooperativa</t>
+          <t>cd_identificador_central_triagem_mecanizada</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cd_identificador_central_triagem_cooperativa</t>
+          <t>cd_identificador_central_triagem_mecanizada</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['cd_identificador_central_triagem_cooperativa', 'cd_identificador_original', 'nm_cooperativa', 'nm_endereco', 'tx_especialidade', 'tx_link_informacao', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_central_triagem_mecanizada', 'cd_identificador_original', 'nm_central_triagem_mecanizada', 'nm_endereco', 'qt_di_capacidade_tonelada', 'tx_quantitativo', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1943,123 +1939,123 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>central_triagem_mecanizada</t>
+          <t>distrito_municipal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_central_triagem_mecanizada": "int"}, {"cd_identificador_original": "int"}, {"nm_central_triagem_mecanizada": "string"}, {"nm_endereco": "string"}, {"qt_di_capacidade_tonelada": "number"}, {"tx_quantitativo": "string"}, {"ge_ponto": "Point"}]</t>
+          <t>[{"cd_identificador_distrito": "number"}, {"cd_identificador_subprefeitura": "number"}, {"ge_poligono": "Polygon"}, {"cd_distrito_municipal": "string"}, {"nm_distrito_municipal": "string"}, {"sg_distrito_municipal": "string"}, {"tx_escala": "string"}, {"sg_fonte_original": "string"}, {"dt_criacao": "date"}, {"dt_atualizacao": "date-time"}, {"cd_usuario_atualizacao": "string"}, {"cd_tipo_discrepancia": "int"}, {"qt_area_quilometro": "number"}, {"qt_area_metro": "number"}]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['cd_identificador_central_triagem_mecanizada', 'cd_identificador_original', 'nm_central_triagem_mecanizada', 'nm_endereco', 'qt_di_capacidade_tonelada', 'tx_quantitativo', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_distrito', 'cd_identificador_subprefeitura', 'ge_poligono', 'cd_distrito_municipal', 'nm_distrito_municipal', 'sg_distrito_municipal', 'tx_escala', 'sg_fonte_original', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'cd_tipo_discrepancia', 'qt_area_quilometro', 'qt_area_metro', 'geometry']</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cd_identificador_central_triagem_mecanizada</t>
+          <t>cd_identificador_distrito</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cd_identificador_central_triagem_mecanizada</t>
+          <t>cd_identificador_distrito</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['cd_identificador_central_triagem_mecanizada', 'cd_identificador_original', 'nm_central_triagem_mecanizada', 'nm_endereco', 'qt_di_capacidade_tonelada', 'tx_quantitativo', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_distrito', 'cd_identificador_subprefeitura', 'ge_poligono', 'cd_distrito_municipal', 'nm_distrito_municipal', 'sg_distrito_municipal', 'tx_escala', 'sg_fonte_original', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'cd_tipo_discrepancia', 'qt_area_quilometro', 'qt_area_metro', 'geometry']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>intersects</t>
+          <t>largest_intersection</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>distrito_municipal</t>
+          <t>drenagem</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_distrito": "number"}, {"cd_identificador_subprefeitura": "number"}, {"ge_poligono": "Polygon"}, {"cd_distrito_municipal": "string"}, {"nm_distrito_municipal": "string"}, {"sg_distrito_municipal": "string"}, {"tx_escala": "string"}, {"sg_fonte_original": "string"}, {"dt_criacao": "date"}, {"dt_atualizacao": "date-time"}, {"cd_usuario_atualizacao": "string"}, {"cd_tipo_discrepancia": "int"}, {"qt_area_quilometro": "number"}, {"qt_area_metro": "number"}]</t>
+          <t>[{"cd_identificador": "number"}, {"tx_tipo_acidente": "string"}, {"nm_acidente": "string"}, {"ge_linha": "LineString"}, {"cd_tipo_acidente": "string"}, {"cd_numero_ordem": "string"}, {"nm_bairro": "string"}, {"cd_ordem_rio": "number"}, {"nm_via_proximo": "string"}, {"qt_comprimento_hidrografia": "number"}, {"cd_tipo_curso_hidrografia": "number"}, {"nm_tipo_curso_hidrografia": "string"}, {"cd_setor_fiscal": "string"}, {"tx_escala": "string"}, {"dt_criacao": "date"}, {"dt_atualizacao": "date-time"}, {"cd_usuario_atualizacao": "string"}]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['cd_identificador_distrito', 'cd_identificador_subprefeitura', 'ge_poligono', 'cd_distrito_municipal', 'nm_distrito_municipal', 'sg_distrito_municipal', 'tx_escala', 'sg_fonte_original', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'cd_tipo_discrepancia', 'qt_area_quilometro', 'qt_area_metro', 'geometry']</t>
+          <t>['cd_identificador', 'tx_tipo_acidente', 'nm_acidente', 'ge_linha', 'cd_tipo_acidente', 'cd_numero_ordem', 'nm_bairro', 'cd_ordem_rio', 'nm_via_proximo', 'qt_comprimento_hidrografia', 'cd_tipo_curso_hidrografia', 'nm_tipo_curso_hidrografia', 'cd_setor_fiscal', 'tx_escala', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cd_identificador_distrito</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>cd_identificador</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>{'cd_identificador': 'cd_identificador_drenagem'}</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cd_identificador_distrito</t>
+          <t>cd_identificador_drenagem</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['cd_identificador_distrito', 'cd_identificador_subprefeitura', 'ge_poligono', 'cd_distrito_municipal', 'nm_distrito_municipal', 'sg_distrito_municipal', 'tx_escala', 'sg_fonte_original', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'cd_tipo_discrepancia', 'qt_area_quilometro', 'qt_area_metro', 'geometry']</t>
+          <t>['cd_identificador_drenagem', 'tx_tipo_acidente', 'nm_acidente', 'ge_linha', 'cd_tipo_acidente', 'cd_numero_ordem', 'nm_bairro', 'cd_ordem_rio', 'nm_via_proximo', 'qt_comprimento_hidrografia', 'cd_tipo_curso_hidrografia', 'nm_tipo_curso_hidrografia', 'cd_setor_fiscal', 'tx_escala', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>largest_intersection</t>
+          <t>intersects</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>drenagem</t>
+          <t>ecoponto</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[{"cd_identificador": "number"}, {"tx_tipo_acidente": "string"}, {"nm_acidente": "string"}, {"ge_linha": "LineString"}, {"cd_tipo_acidente": "string"}, {"cd_numero_ordem": "string"}, {"nm_bairro": "string"}, {"cd_ordem_rio": "number"}, {"nm_via_proximo": "string"}, {"qt_comprimento_hidrografia": "number"}, {"cd_tipo_curso_hidrografia": "number"}, {"nm_tipo_curso_hidrografia": "string"}, {"cd_setor_fiscal": "string"}, {"tx_escala": "string"}, {"dt_criacao": "date"}, {"dt_atualizacao": "date-time"}, {"cd_usuario_atualizacao": "string"}]</t>
+          <t>[{"cd_identificador_ecoponto": "int"}, {"cd_identificador_original": "int"}, {"nm_subprefeitura": "string"}, {"sg_subprefeitura": "string"}, {"nm_distrito": "string"}, {"nm_ecoponto": "string"}, {"nm_endereco": "string"}, {"dt_inauguracao": "date"}, {"cd_lote_indivisivel": "string"}, {"nm_empresa": "string"}, {"tx_atendimento": "string"}, {"tx_recebimento_comum": "string"}, {"tx_recebimento_diferenciado": "string"}, {"tx_decreto": "string"}, {"tx_link_decreto": "string"}, {"tx_lei": "string"}, {"tx_link_lei": "string"}, {"tx_tipo_recebimento": "string"}, {"ge_ponto": "Point"}]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['cd_identificador', 'tx_tipo_acidente', 'nm_acidente', 'ge_linha', 'cd_tipo_acidente', 'cd_numero_ordem', 'nm_bairro', 'cd_ordem_rio', 'nm_via_proximo', 'qt_comprimento_hidrografia', 'cd_tipo_curso_hidrografia', 'nm_tipo_curso_hidrografia', 'cd_setor_fiscal', 'tx_escala', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
+          <t>['cd_identificador_ecoponto', 'cd_identificador_original', 'nm_subprefeitura', 'sg_subprefeitura', 'nm_distrito', 'nm_ecoponto', 'nm_endereco', 'dt_inauguracao', 'cd_lote_indivisivel', 'nm_empresa', 'tx_atendimento', 'tx_recebimento_comum', 'tx_recebimento_diferenciado', 'tx_decreto', 'tx_link_decreto', 'tx_lei', 'tx_link_lei', 'tx_tipo_recebimento', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cd_identificador</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>{'cd_identificador': 'cd_identificador_drenagem'}</t>
-        </is>
-      </c>
+          <t>cd_identificador_ecoponto</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cd_identificador_drenagem</t>
+          <t>cd_identificador_ecoponto</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['cd_identificador_drenagem', 'tx_tipo_acidente', 'nm_acidente', 'ge_linha', 'cd_tipo_acidente', 'cd_numero_ordem', 'nm_bairro', 'cd_ordem_rio', 'nm_via_proximo', 'qt_comprimento_hidrografia', 'cd_tipo_curso_hidrografia', 'nm_tipo_curso_hidrografia', 'cd_setor_fiscal', 'tx_escala', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
+          <t>['cd_identificador_ecoponto', 'cd_identificador_original', 'nm_subprefeitura', 'sg_subprefeitura', 'nm_distrito', 'nm_ecoponto', 'nm_endereco', 'dt_inauguracao', 'cd_lote_indivisivel', 'nm_empresa', 'tx_atendimento', 'tx_recebimento_comum', 'tx_recebimento_diferenciado', 'tx_decreto', 'tx_link_decreto', 'tx_lei', 'tx_link_lei', 'tx_tipo_recebimento', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2070,37 +2066,37 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ecoponto</t>
+          <t>estacao_transbordo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_ecoponto": "int"}, {"cd_identificador_original": "int"}, {"nm_subprefeitura": "string"}, {"sg_subprefeitura": "string"}, {"nm_distrito": "string"}, {"nm_ecoponto": "string"}, {"nm_endereco": "string"}, {"dt_inauguracao": "date"}, {"cd_lote_indivisivel": "string"}, {"nm_empresa": "string"}, {"tx_atendimento": "string"}, {"tx_recebimento_comum": "string"}, {"tx_recebimento_diferenciado": "string"}, {"tx_decreto": "string"}, {"tx_link_decreto": "string"}, {"tx_lei": "string"}, {"tx_link_lei": "string"}, {"tx_tipo_recebimento": "string"}, {"ge_ponto": "Point"}]</t>
+          <t>[{"cd_identificador_estacao_transbordo": "int"}, {"nm_estacao_transbordo": "string"}, {"nm_endereco": "string"}, {"qt_capacidade_tonelada_dia": "number"}, {"tx_agrupamento": "string"}, {"nm_concessionaria": "string"}, {"ge_ponto": "Point"}]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['cd_identificador_ecoponto', 'cd_identificador_original', 'nm_subprefeitura', 'sg_subprefeitura', 'nm_distrito', 'nm_ecoponto', 'nm_endereco', 'dt_inauguracao', 'cd_lote_indivisivel', 'nm_empresa', 'tx_atendimento', 'tx_recebimento_comum', 'tx_recebimento_diferenciado', 'tx_decreto', 'tx_link_decreto', 'tx_lei', 'tx_link_lei', 'tx_tipo_recebimento', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_estacao_transbordo', 'nm_estacao_transbordo', 'nm_endereco', 'qt_capacidade_tonelada_dia', 'tx_agrupamento', 'nm_concessionaria', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cd_identificador_ecoponto</t>
+          <t>cd_identificador_estacao_transbordo</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cd_identificador_ecoponto</t>
+          <t>cd_identificador_estacao_transbordo</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['cd_identificador_ecoponto', 'cd_identificador_original', 'nm_subprefeitura', 'sg_subprefeitura', 'nm_distrito', 'nm_ecoponto', 'nm_endereco', 'dt_inauguracao', 'cd_lote_indivisivel', 'nm_empresa', 'tx_atendimento', 'tx_recebimento_comum', 'tx_recebimento_diferenciado', 'tx_decreto', 'tx_link_decreto', 'tx_lei', 'tx_link_lei', 'tx_tipo_recebimento', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_estacao_transbordo', 'nm_estacao_transbordo', 'nm_endereco', 'qt_capacidade_tonelada_dia', 'tx_agrupamento', 'nm_concessionaria', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2111,37 +2107,41 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>estacao_transbordo</t>
+          <t>geohabisp_vw_wfs_cortico_geosampa</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_estacao_transbordo": "int"}, {"nm_estacao_transbordo": "string"}, {"nm_endereco": "string"}, {"qt_capacidade_tonelada_dia": "number"}, {"tx_agrupamento": "string"}, {"nm_concessionaria": "string"}, {"ge_ponto": "Point"}]</t>
+          <t>[{"gid": "int"}, {"id_hsp": "string"}, {"nome": "string"}, {"localizacao": "string"}, {"qtd_pessoas": "number"}, {"areageo_m2": "number"}, {"ehab_geometria": "MultiPolygon"}]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['cd_identificador_estacao_transbordo', 'nm_estacao_transbordo', 'nm_endereco', 'qt_capacidade_tonelada_dia', 'tx_agrupamento', 'nm_concessionaria', 'ge_ponto', 'geometry']</t>
+          <t>['gid', 'id_hsp', 'nome', 'localizacao', 'qtd_pessoas', 'areageo_m2', 'ehab_geometria', 'geometry']</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cd_identificador_estacao_transbordo</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>gid</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>{'gid': 'gid_geohabisp_vw_wfs_cortico_geosampa'}</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cd_identificador_estacao_transbordo</t>
+          <t>gid_geohabisp_vw_wfs_cortico_geosampa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['cd_identificador_estacao_transbordo', 'nm_estacao_transbordo', 'nm_endereco', 'qt_capacidade_tonelada_dia', 'tx_agrupamento', 'nm_concessionaria', 'ge_ponto', 'geometry']</t>
+          <t>['gid_geohabisp_vw_wfs_cortico_geosampa', 'id_hsp', 'nome', 'localizacao', 'qtd_pessoas', 'areageo_m2', 'ehab_geometria', 'geometry']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2152,21 +2152,21 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>geohabisp_vw_wfs_cortico_geosampa</t>
+          <t>geohabisp_vw_wfs_favela_geosampa</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[{"gid": "int"}, {"id_hsp": "string"}, {"nome": "string"}, {"localizacao": "string"}, {"qtd_pessoas": "number"}, {"areageo_m2": "number"}, {"ehab_geometria": "MultiPolygon"}]</t>
+          <t>[{"gid": "int"}, {"uuid_id": "string"}, {"nome": "string"}, {"nome_secundario": "string"}, {"localizacao": "string"}, {"tot_domicilio": "number"}, {"areageo_m2": "number"}, {"anoimplant": "number"}, {"propriedade_area": "string"}, {"ehab_geometria": "MultiPolygon"}]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['gid', 'id_hsp', 'nome', 'localizacao', 'qtd_pessoas', 'areageo_m2', 'ehab_geometria', 'geometry']</t>
+          <t>['gid', 'uuid_id', 'nome', 'nome_secundario', 'localizacao', 'tot_domicilio', 'areageo_m2', 'anoimplant', 'propriedade_area', 'ehab_geometria', 'geometry']</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2176,17 +2176,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{'gid': 'gid_geohabisp_vw_wfs_cortico_geosampa'}</t>
+          <t>{'gid': 'gid_geohabisp_vw_wfs_favela_geosampa'}</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>gid_geohabisp_vw_wfs_cortico_geosampa</t>
+          <t>gid_geohabisp_vw_wfs_favela_geosampa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['gid_geohabisp_vw_wfs_cortico_geosampa', 'id_hsp', 'nome', 'localizacao', 'qtd_pessoas', 'areageo_m2', 'ehab_geometria', 'geometry']</t>
+          <t>['gid_geohabisp_vw_wfs_favela_geosampa', 'uuid_id', 'nome', 'nome_secundario', 'localizacao', 'tot_domicilio', 'areageo_m2', 'anoimplant', 'propriedade_area', 'ehab_geometria', 'geometry']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2197,21 +2197,21 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>geohabisp_vw_wfs_favela_geosampa</t>
+          <t>geohabisp_vw_wfs_loteamento_geosampa</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[{"gid": "int"}, {"uuid_id": "string"}, {"nome": "string"}, {"nome_secundario": "string"}, {"localizacao": "string"}, {"tot_domicilio": "number"}, {"areageo_m2": "number"}, {"anoimplant": "number"}, {"propriedade_area": "string"}, {"ehab_geometria": "MultiPolygon"}]</t>
+          <t>[{"gid": "int"}, {"uuid_id": "string"}, {"nome": "string"}, {"totlotes": "number"}, {"areageo_m2": "number"}, {"nro_pa": "string"}, {"nro_sei": "string"}, {"definicao": "string"}, {"nro_planta_au": "string"}, {"nro_auto_regulariza": "string"}, {"renda": "string"}, {"ehab_geometria": "MultiPolygon"}]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['gid', 'uuid_id', 'nome', 'nome_secundario', 'localizacao', 'tot_domicilio', 'areageo_m2', 'anoimplant', 'propriedade_area', 'ehab_geometria', 'geometry']</t>
+          <t>['gid', 'uuid_id', 'nome', 'totlotes', 'areageo_m2', 'nro_pa', 'nro_sei', 'definicao', 'nro_planta_au', 'nro_auto_regulariza', 'renda', 'ehab_geometria', 'geometry']</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2221,17 +2221,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'gid': 'gid_geohabisp_vw_wfs_favela_geosampa'}</t>
+          <t>{'gid': 'gid_geohabisp_vw_wfs_loteamento_geosampa'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>gid_geohabisp_vw_wfs_favela_geosampa</t>
+          <t>gid_geohabisp_vw_wfs_loteamento_geosampa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['gid_geohabisp_vw_wfs_favela_geosampa', 'uuid_id', 'nome', 'nome_secundario', 'localizacao', 'tot_domicilio', 'areageo_m2', 'anoimplant', 'propriedade_area', 'ehab_geometria', 'geometry']</t>
+          <t>['gid_geohabisp_vw_wfs_loteamento_geosampa', 'uuid_id', 'nome', 'totlotes', 'areageo_m2', 'nro_pa', 'nro_sei', 'definicao', 'nro_planta_au', 'nro_auto_regulariza', 'renda', 'ehab_geometria', 'geometry']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2242,21 +2242,21 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>geohabisp_vw_wfs_loteamento_geosampa</t>
+          <t>geohabisp_vw_wfs_nucleo_geosampa</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[{"gid": "int"}, {"uuid_id": "string"}, {"nome": "string"}, {"totlotes": "number"}, {"areageo_m2": "number"}, {"nro_pa": "string"}, {"nro_sei": "string"}, {"definicao": "string"}, {"nro_planta_au": "string"}, {"nro_auto_regulariza": "string"}, {"renda": "string"}, {"ehab_geometria": "MultiPolygon"}]</t>
+          <t>[{"gid": "int"}, {"uuid_id": "string"}, {"nome": "string"}, {"nome_secundario": "string"}, {"localizacao": "string"}, {"tot_domicilio": "number"}, {"areageo_m2": "number"}, {"anoimplant": "number"}, {"propriedade_area": "string"}, {"ehab_geometria": "MultiPolygon"}]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['gid', 'uuid_id', 'nome', 'totlotes', 'areageo_m2', 'nro_pa', 'nro_sei', 'definicao', 'nro_planta_au', 'nro_auto_regulariza', 'renda', 'ehab_geometria', 'geometry']</t>
+          <t>['gid', 'uuid_id', 'nome', 'nome_secundario', 'localizacao', 'tot_domicilio', 'areageo_m2', 'anoimplant', 'propriedade_area', 'ehab_geometria', 'geometry']</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>{'gid': 'gid_geohabisp_vw_wfs_loteamento_geosampa'}</t>
+          <t>{'gid': 'gid_geohabisp_vw_wfs_nucleo_geosampa'}</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>gid_geohabisp_vw_wfs_loteamento_geosampa</t>
+          <t>gid_geohabisp_vw_wfs_nucleo_geosampa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['gid_geohabisp_vw_wfs_loteamento_geosampa', 'uuid_id', 'nome', 'totlotes', 'areageo_m2', 'nro_pa', 'nro_sei', 'definicao', 'nro_planta_au', 'nro_auto_regulariza', 'renda', 'ehab_geometria', 'geometry']</t>
+          <t>['gid_geohabisp_vw_wfs_nucleo_geosampa', 'uuid_id', 'nome', 'nome_secundario', 'localizacao', 'tot_domicilio', 'areageo_m2', 'anoimplant', 'propriedade_area', 'ehab_geometria', 'geometry']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2287,41 +2287,37 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>geohabisp_vw_wfs_nucleo_geosampa</t>
+          <t>hidrografia_ilha</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[{"gid": "int"}, {"uuid_id": "string"}, {"nome": "string"}, {"nome_secundario": "string"}, {"localizacao": "string"}, {"tot_domicilio": "number"}, {"areageo_m2": "number"}, {"anoimplant": "number"}, {"propriedade_area": "string"}, {"ehab_geometria": "MultiPolygon"}]</t>
+          <t>[{"cd_identificador_hidrografia_ilha": "int"}, {"cd_identificador_hidrografia_ilha_original": "int"}, {"tx_tipo_hidrografia_ilha": "string"}, {"tx_escala": "string"}, {"tx_ano_referencia": "string"}, {"qt_area_metro": "number"}, {"sg_fonte_original": "string"}, {"ge_poligono": "Polygon"}]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['gid', 'uuid_id', 'nome', 'nome_secundario', 'localizacao', 'tot_domicilio', 'areageo_m2', 'anoimplant', 'propriedade_area', 'ehab_geometria', 'geometry']</t>
+          <t>['cd_identificador_hidrografia_ilha', 'cd_identificador_hidrografia_ilha_original', 'tx_tipo_hidrografia_ilha', 'tx_escala', 'tx_ano_referencia', 'qt_area_metro', 'sg_fonte_original', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gid</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>{'gid': 'gid_geohabisp_vw_wfs_nucleo_geosampa'}</t>
-        </is>
-      </c>
+          <t>cd_identificador_hidrografia_ilha</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>gid_geohabisp_vw_wfs_nucleo_geosampa</t>
+          <t>cd_identificador_hidrografia_ilha</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['gid_geohabisp_vw_wfs_nucleo_geosampa', 'uuid_id', 'nome', 'nome_secundario', 'localizacao', 'tot_domicilio', 'areageo_m2', 'anoimplant', 'propriedade_area', 'ehab_geometria', 'geometry']</t>
+          <t>['cd_identificador_hidrografia_ilha', 'cd_identificador_hidrografia_ilha_original', 'tx_tipo_hidrografia_ilha', 'tx_escala', 'tx_ano_referencia', 'qt_area_metro', 'sg_fonte_original', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2332,37 +2328,41 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hidrografia_ilha</t>
+          <t>hidrografia_restituida</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_hidrografia_ilha": "int"}, {"cd_identificador_hidrografia_ilha_original": "int"}, {"tx_tipo_hidrografia_ilha": "string"}, {"tx_escala": "string"}, {"tx_ano_referencia": "string"}, {"qt_area_metro": "number"}, {"sg_fonte_original": "string"}, {"ge_poligono": "Polygon"}]</t>
+          <t>[{"cd_identificador": "number"}, {"tx_tipo_acidente": "string"}, {"nm_acidente": "string"}, {"ge_linha": "LineString"}, {"cd_tipo_acidente": "string"}, {"cd_setor_fiscal": "string"}, {"cd_numero_ordem": "string"}, {"cd_numero_acidente": "string"}, {"tx_escala": "string"}, {"dt_criacao": "date"}, {"sg_fonte_original": "string"}, {"dt_atualizacao": "date-time"}, {"cd_usuario_atualizacao": "string"}]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['cd_identificador_hidrografia_ilha', 'cd_identificador_hidrografia_ilha_original', 'tx_tipo_hidrografia_ilha', 'tx_escala', 'tx_ano_referencia', 'qt_area_metro', 'sg_fonte_original', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador', 'tx_tipo_acidente', 'nm_acidente', 'ge_linha', 'cd_tipo_acidente', 'cd_setor_fiscal', 'cd_numero_ordem', 'cd_numero_acidente', 'tx_escala', 'dt_criacao', 'sg_fonte_original', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cd_identificador_hidrografia_ilha</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>cd_identificador</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>{'cd_identificador': 'cd_identificador_hidrografia_restituida'}</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cd_identificador_hidrografia_ilha</t>
+          <t>cd_identificador_hidrografia_restituida</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['cd_identificador_hidrografia_ilha', 'cd_identificador_hidrografia_ilha_original', 'tx_tipo_hidrografia_ilha', 'tx_escala', 'tx_ano_referencia', 'qt_area_metro', 'sg_fonte_original', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_hidrografia_restituida', 'tx_tipo_acidente', 'nm_acidente', 'ge_linha', 'cd_tipo_acidente', 'cd_setor_fiscal', 'cd_numero_ordem', 'cd_numero_acidente', 'tx_escala', 'dt_criacao', 'sg_fonte_original', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2373,21 +2373,21 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>hidrografia_restituida</t>
+          <t>manancial_billings</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[{"cd_identificador": "number"}, {"tx_tipo_acidente": "string"}, {"nm_acidente": "string"}, {"ge_linha": "LineString"}, {"cd_tipo_acidente": "string"}, {"cd_setor_fiscal": "string"}, {"cd_numero_ordem": "string"}, {"cd_numero_acidente": "string"}, {"tx_escala": "string"}, {"dt_criacao": "date"}, {"sg_fonte_original": "string"}, {"dt_atualizacao": "date-time"}, {"cd_usuario_atualizacao": "string"}]</t>
+          <t>[{"cd_identificador": "int"}, {"dc_classe": "string"}, {"sg_classe": "string"}, {"dc_area_especial": "string"}, {"tx_aod": "string"}, {"qt_area": "number"}, {"qt_perimetro": "number"}, {"nm_bacia": "string"}, {"ge_poligono": "Polygon"}]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['cd_identificador', 'tx_tipo_acidente', 'nm_acidente', 'ge_linha', 'cd_tipo_acidente', 'cd_setor_fiscal', 'cd_numero_ordem', 'cd_numero_acidente', 'tx_escala', 'dt_criacao', 'sg_fonte_original', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
+          <t>['cd_identificador', 'dc_classe', 'sg_classe', 'dc_area_especial', 'tx_aod', 'qt_area', 'qt_perimetro', 'nm_bacia', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_hidrografia_restituida'}</t>
+          <t>{'cd_identificador': 'cd_identificador_manancial_billings'}</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cd_identificador_hidrografia_restituida</t>
+          <t>cd_identificador_manancial_billings</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['cd_identificador_hidrografia_restituida', 'tx_tipo_acidente', 'nm_acidente', 'ge_linha', 'cd_tipo_acidente', 'cd_setor_fiscal', 'cd_numero_ordem', 'cd_numero_acidente', 'tx_escala', 'dt_criacao', 'sg_fonte_original', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
+          <t>['cd_identificador_manancial_billings', 'dc_classe', 'sg_classe', 'dc_area_especial', 'tx_aod', 'qt_area', 'qt_perimetro', 'nm_bacia', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2418,11 +2418,11 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>manancial_billings</t>
+          <t>manancial_guarapiranga</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2442,17 +2442,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_manancial_billings'}</t>
+          <t>{'cd_identificador': 'cd_identificador_manancial_guarapiranga'}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cd_identificador_manancial_billings</t>
+          <t>cd_identificador_manancial_guarapiranga</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['cd_identificador_manancial_billings', 'dc_classe', 'sg_classe', 'dc_area_especial', 'tx_aod', 'qt_area', 'qt_perimetro', 'nm_bacia', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_manancial_guarapiranga', 'dc_classe', 'sg_classe', 'dc_area_especial', 'tx_aod', 'qt_area', 'qt_perimetro', 'nm_bacia', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2463,11 +2463,11 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>manancial_guarapiranga</t>
+          <t>manancial_juquery</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2487,17 +2487,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_manancial_guarapiranga'}</t>
+          <t>{'cd_identificador': 'cd_identificador_manancial_juquery'}</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cd_identificador_manancial_guarapiranga</t>
+          <t>cd_identificador_manancial_juquery</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['cd_identificador_manancial_guarapiranga', 'dc_classe', 'sg_classe', 'dc_area_especial', 'tx_aod', 'qt_area', 'qt_perimetro', 'nm_bacia', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_manancial_juquery', 'dc_classe', 'sg_classe', 'dc_area_especial', 'tx_aod', 'qt_area', 'qt_perimetro', 'nm_bacia', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2508,41 +2508,37 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>manancial_juquery</t>
+          <t>massa_d_agua</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[{"cd_identificador": "int"}, {"dc_classe": "string"}, {"sg_classe": "string"}, {"dc_area_especial": "string"}, {"tx_aod": "string"}, {"qt_area": "number"}, {"qt_perimetro": "number"}, {"nm_bacia": "string"}, {"ge_poligono": "Polygon"}]</t>
+          <t>[{"cd_identificador_hidrografia_poligono": "number"}, {"nm_acidente": "string"}, {"dt_atualizacao": "date-time"}, {"cd_tipo_acidente": "string"}, {"sg_fonte_original": "string"}, {"cd_tipo_discrepancia": "int"}, {"qt_perimetro_hidrografia_poligono": "number"}, {"qt_area_hidrografia_poligono": "number"}, {"ge_poligono": "Polygon"}]</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['cd_identificador', 'dc_classe', 'sg_classe', 'dc_area_especial', 'tx_aod', 'qt_area', 'qt_perimetro', 'nm_bacia', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_hidrografia_poligono', 'nm_acidente', 'dt_atualizacao', 'cd_tipo_acidente', 'sg_fonte_original', 'cd_tipo_discrepancia', 'qt_perimetro_hidrografia_poligono', 'qt_area_hidrografia_poligono', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>cd_identificador</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>{'cd_identificador': 'cd_identificador_manancial_juquery'}</t>
-        </is>
-      </c>
+          <t>cd_identificador_hidrografia_poligono</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>cd_identificador_manancial_juquery</t>
+          <t>cd_identificador_hidrografia_poligono</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['cd_identificador_manancial_juquery', 'dc_classe', 'sg_classe', 'dc_area_especial', 'tx_aod', 'qt_area', 'qt_perimetro', 'nm_bacia', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_hidrografia_poligono', 'nm_acidente', 'dt_atualizacao', 'cd_tipo_acidente', 'sg_fonte_original', 'cd_tipo_discrepancia', 'qt_perimetro_hidrografia_poligono', 'qt_area_hidrografia_poligono', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2553,37 +2549,37 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>massa_d_agua</t>
+          <t>papeleira</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_hidrografia_poligono": "number"}, {"nm_acidente": "string"}, {"dt_atualizacao": "date-time"}, {"cd_tipo_acidente": "string"}, {"sg_fonte_original": "string"}, {"cd_tipo_discrepancia": "int"}, {"qt_perimetro_hidrografia_poligono": "number"}, {"qt_area_hidrografia_poligono": "number"}, {"ge_poligono": "Polygon"}]</t>
+          <t>[{"cd_identificador_papeleira": "int"}, {"cd_identificador_original": "int"}, {"nm_endereco": "string"}, {"nm_subprefeitura": "string"}, {"ge_ponto": "Point"}]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['cd_identificador_hidrografia_poligono', 'nm_acidente', 'dt_atualizacao', 'cd_tipo_acidente', 'sg_fonte_original', 'cd_tipo_discrepancia', 'qt_perimetro_hidrografia_poligono', 'qt_area_hidrografia_poligono', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_papeleira', 'cd_identificador_original', 'nm_endereco', 'nm_subprefeitura', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>cd_identificador_hidrografia_poligono</t>
+          <t>cd_identificador_papeleira</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cd_identificador_hidrografia_poligono</t>
+          <t>cd_identificador_papeleira</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['cd_identificador_hidrografia_poligono', 'nm_acidente', 'dt_atualizacao', 'cd_tipo_acidente', 'sg_fonte_original', 'cd_tipo_discrepancia', 'qt_perimetro_hidrografia_poligono', 'qt_area_hidrografia_poligono', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_papeleira', 'cd_identificador_original', 'nm_endereco', 'nm_subprefeitura', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2594,37 +2590,37 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>papeleira</t>
+          <t>patio_compostagem</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_papeleira": "int"}, {"cd_identificador_original": "int"}, {"nm_endereco": "string"}, {"nm_subprefeitura": "string"}, {"ge_ponto": "Point"}]</t>
+          <t>[{"cd_identificador_patio_compostagem": "int"}, {"cd_identificador_original": "int"}, {"nm_patio_compostagem": "string"}, {"nm_endereco": "string"}, {"nm_empresa_operacao": "string"}, {"tx_horario_atendimento": "string"}, {"tx_contato": "string"}, {"tx_site": "string"}, {"ge_ponto": "Point"}]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['cd_identificador_papeleira', 'cd_identificador_original', 'nm_endereco', 'nm_subprefeitura', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_patio_compostagem', 'cd_identificador_original', 'nm_patio_compostagem', 'nm_endereco', 'nm_empresa_operacao', 'tx_horario_atendimento', 'tx_contato', 'tx_site', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cd_identificador_papeleira</t>
+          <t>cd_identificador_patio_compostagem</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>cd_identificador_papeleira</t>
+          <t>cd_identificador_patio_compostagem</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['cd_identificador_papeleira', 'cd_identificador_original', 'nm_endereco', 'nm_subprefeitura', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_patio_compostagem', 'cd_identificador_original', 'nm_patio_compostagem', 'nm_endereco', 'nm_empresa_operacao', 'tx_horario_atendimento', 'tx_contato', 'tx_site', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2635,37 +2631,37 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>patio_compostagem</t>
+          <t>pluviometro</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_patio_compostagem": "int"}, {"cd_identificador_original": "int"}, {"nm_patio_compostagem": "string"}, {"nm_endereco": "string"}, {"nm_empresa_operacao": "string"}, {"tx_horario_atendimento": "string"}, {"tx_contato": "string"}, {"tx_site": "string"}, {"ge_ponto": "Point"}]</t>
+          <t>[{"cd_identificador_pluviometro": "number"}, {"sg_fonte_original": "string"}, {"ge_ponto": "Point"}, {"dt_carga": "date"}, {"tx_endereco": "string"}, {"nr_latitude": "number"}, {"nr_longitude": "number"}, {"nm_pluviometro": "string"}]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['cd_identificador_patio_compostagem', 'cd_identificador_original', 'nm_patio_compostagem', 'nm_endereco', 'nm_empresa_operacao', 'tx_horario_atendimento', 'tx_contato', 'tx_site', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_pluviometro', 'sg_fonte_original', 'ge_ponto', 'dt_carga', 'tx_endereco', 'nr_latitude', 'nr_longitude', 'nm_pluviometro', 'geometry']</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cd_identificador_patio_compostagem</t>
+          <t>cd_identificador_pluviometro</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cd_identificador_patio_compostagem</t>
+          <t>cd_identificador_pluviometro</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['cd_identificador_patio_compostagem', 'cd_identificador_original', 'nm_patio_compostagem', 'nm_endereco', 'nm_empresa_operacao', 'tx_horario_atendimento', 'tx_contato', 'tx_site', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_pluviometro', 'sg_fonte_original', 'ge_ponto', 'dt_carga', 'tx_endereco', 'nr_latitude', 'nr_longitude', 'nm_pluviometro', 'geometry']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2676,37 +2672,41 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pluviometro</t>
+          <t>ponto_cotado</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_pluviometro": "number"}, {"sg_fonte_original": "string"}, {"ge_ponto": "Point"}, {"dt_carga": "date"}, {"tx_endereco": "string"}, {"nr_latitude": "number"}, {"nr_longitude": "number"}, {"nm_pluviometro": "string"}]</t>
+          <t>[{"cd_identificador": "number"}, {"ge_ponto": "Point"}, {"cd_altitude": "number"}, {"tx_escala": "string"}, {"sg_fonte_original": "string"}, {"in_ponto_intervia": "string"}, {"dt_criacao": "date"}, {"dt_atualizacao": "date-time"}, {"cd_usuario_atualizacao": "string"}]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['cd_identificador_pluviometro', 'sg_fonte_original', 'ge_ponto', 'dt_carga', 'tx_endereco', 'nr_latitude', 'nr_longitude', 'nm_pluviometro', 'geometry']</t>
+          <t>['cd_identificador', 'ge_ponto', 'cd_altitude', 'tx_escala', 'sg_fonte_original', 'in_ponto_intervia', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>cd_identificador_pluviometro</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+          <t>cd_identificador</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>{'cd_identificador': 'cd_identificador_ponto_cotado'}</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>cd_identificador_pluviometro</t>
+          <t>cd_identificador_ponto_cotado</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['cd_identificador_pluviometro', 'sg_fonte_original', 'ge_ponto', 'dt_carga', 'tx_endereco', 'nr_latitude', 'nr_longitude', 'nm_pluviometro', 'geometry']</t>
+          <t>['cd_identificador_ponto_cotado', 'ge_ponto', 'cd_altitude', 'tx_escala', 'sg_fonte_original', 'in_ponto_intervia', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2717,41 +2717,37 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ponto_cotado</t>
+          <t>ponto_entrega_voluntaria</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[{"cd_identificador": "number"}, {"ge_ponto": "Point"}, {"cd_altitude": "number"}, {"tx_escala": "string"}, {"sg_fonte_original": "string"}, {"in_ponto_intervia": "string"}, {"dt_criacao": "date"}, {"dt_atualizacao": "date-time"}, {"cd_usuario_atualizacao": "string"}]</t>
+          <t>[{"cd_identificador_ponto_entrega_voluntaria": "int"}, {"cd_identificador_original": "int"}, {"nm_local": "string"}, {"nm_endereco": "string"}, {"qt_container": "number"}, {"nm_subprefeitura": "string"}, {"ge_ponto": "Point"}]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['cd_identificador', 'ge_ponto', 'cd_altitude', 'tx_escala', 'sg_fonte_original', 'in_ponto_intervia', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
+          <t>['cd_identificador_ponto_entrega_voluntaria', 'cd_identificador_original', 'nm_local', 'nm_endereco', 'qt_container', 'nm_subprefeitura', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>cd_identificador</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>{'cd_identificador': 'cd_identificador_ponto_cotado'}</t>
-        </is>
-      </c>
+          <t>cd_identificador_ponto_entrega_voluntaria</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>cd_identificador_ponto_cotado</t>
+          <t>cd_identificador_ponto_entrega_voluntaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['cd_identificador_ponto_cotado', 'ge_ponto', 'cd_altitude', 'tx_escala', 'sg_fonte_original', 'in_ponto_intervia', 'dt_criacao', 'dt_atualizacao', 'cd_usuario_atualizacao', 'geometry']</t>
+          <t>['cd_identificador_ponto_entrega_voluntaria', 'cd_identificador_original', 'nm_local', 'nm_endereco', 'qt_container', 'nm_subprefeitura', 'ge_ponto', 'geometry']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2762,37 +2758,37 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ponto_entrega_voluntaria</t>
+          <t>represa_nivel_maximo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_ponto_entrega_voluntaria": "int"}, {"cd_identificador_original": "int"}, {"nm_local": "string"}, {"nm_endereco": "string"}, {"qt_container": "number"}, {"nm_subprefeitura": "string"}, {"ge_ponto": "Point"}]</t>
+          <t>[{"cd_identificador_represa": "number"}, {"nm_acidente": "string"}, {"dt_atualizacao": "date-time"}, {"cd_tipo_acidente": "string"}, {"sg_fonte_original": "string"}, {"cd_tipo_discrepancia": "int"}, {"qt_perimetro_represa": "number"}, {"qt_area_represa": "number"}, {"ge_poligono": "Polygon"}]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['cd_identificador_ponto_entrega_voluntaria', 'cd_identificador_original', 'nm_local', 'nm_endereco', 'qt_container', 'nm_subprefeitura', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_represa', 'nm_acidente', 'dt_atualizacao', 'cd_tipo_acidente', 'sg_fonte_original', 'cd_tipo_discrepancia', 'qt_perimetro_represa', 'qt_area_represa', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>cd_identificador_ponto_entrega_voluntaria</t>
+          <t>cd_identificador_represa</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>cd_identificador_ponto_entrega_voluntaria</t>
+          <t>cd_identificador_represa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['cd_identificador_ponto_entrega_voluntaria', 'cd_identificador_original', 'nm_local', 'nm_endereco', 'qt_container', 'nm_subprefeitura', 'ge_ponto', 'geometry']</t>
+          <t>['cd_identificador_represa', 'nm_acidente', 'dt_atualizacao', 'cd_tipo_acidente', 'sg_fonte_original', 'cd_tipo_discrepancia', 'qt_perimetro_represa', 'qt_area_represa', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2803,37 +2799,37 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>represa_nivel_maximo</t>
+          <t>reservatorio_amortecimento</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_represa": "number"}, {"nm_acidente": "string"}, {"dt_atualizacao": "date-time"}, {"cd_tipo_acidente": "string"}, {"sg_fonte_original": "string"}, {"cd_tipo_discrepancia": "int"}, {"qt_perimetro_represa": "number"}, {"qt_area_represa": "number"}, {"ge_poligono": "Polygon"}]</t>
+          <t>[{"cd_identificador_reservatorio_amortecimento": "number"}, {"nm_reservatorio": "string"}, {"qt_volume_maximo_capacidade": "number"}, {"nm_curso_dagua": "string"}, {"dc_legenda": "string"}, {"qt_area": "number"}, {"nm_bacia_hidrografica": "string"}, {"ge_poligono": "Polygon"}]</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['cd_identificador_represa', 'nm_acidente', 'dt_atualizacao', 'cd_tipo_acidente', 'sg_fonte_original', 'cd_tipo_discrepancia', 'qt_perimetro_represa', 'qt_area_represa', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_reservatorio_amortecimento', 'nm_reservatorio', 'qt_volume_maximo_capacidade', 'nm_curso_dagua', 'dc_legenda', 'qt_area', 'nm_bacia_hidrografica', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>cd_identificador_represa</t>
+          <t>cd_identificador_reservatorio_amortecimento</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>cd_identificador_represa</t>
+          <t>cd_identificador_reservatorio_amortecimento</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['cd_identificador_represa', 'nm_acidente', 'dt_atualizacao', 'cd_tipo_acidente', 'sg_fonte_original', 'cd_tipo_discrepancia', 'qt_perimetro_represa', 'qt_area_represa', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_reservatorio_amortecimento', 'nm_reservatorio', 'qt_volume_maximo_capacidade', 'nm_curso_dagua', 'dc_legenda', 'qt_area', 'nm_bacia_hidrografica', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2844,37 +2840,37 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>reservatorio_amortecimento</t>
+          <t>reservatorio_amortecimento_ponto</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_reservatorio_amortecimento": "number"}, {"nm_reservatorio": "string"}, {"qt_volume_maximo_capacidade": "number"}, {"nm_curso_dagua": "string"}, {"dc_legenda": "string"}, {"qt_area": "number"}, {"nm_bacia_hidrografica": "string"}, {"ge_poligono": "Polygon"}]</t>
+          <t>[{"cd_identificador_reservatorio_amortecimento_ponto": "int"}, {"cd_identificador_original": "int"}, {"tx_tipo_reservatorio": "string"}, {"cd_reservatorio": "string"}, {"tx_status_reservatorio": "string"}, {"qt_volume_metro": "number"}, {"qt_area_metro": "number"}, {"tx_tipo_esgotamento": "string"}, {"nm_reservatorio": "string"}, {"nm_subprefeitura": "string"}, {"nm_endereco": "string"}, {"cd_identificador_objeto": "int"}, {"tx_caracteristica": "string"}, {"nm_corrego": "string"}, {"ge_ponto": "Point"}, {"dt_atualizacao": "date"}]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['cd_identificador_reservatorio_amortecimento', 'nm_reservatorio', 'qt_volume_maximo_capacidade', 'nm_curso_dagua', 'dc_legenda', 'qt_area', 'nm_bacia_hidrografica', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_reservatorio_amortecimento_ponto', 'cd_identificador_original', 'tx_tipo_reservatorio', 'cd_reservatorio', 'tx_status_reservatorio', 'qt_volume_metro', 'qt_area_metro', 'tx_tipo_esgotamento', 'nm_reservatorio', 'nm_subprefeitura', 'nm_endereco', 'cd_identificador_objeto', 'tx_caracteristica', 'nm_corrego', 'ge_ponto', 'dt_atualizacao', 'geometry']</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cd_identificador_reservatorio_amortecimento</t>
+          <t>cd_identificador_reservatorio_amortecimento_ponto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>cd_identificador_reservatorio_amortecimento</t>
+          <t>cd_identificador_reservatorio_amortecimento_ponto</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['cd_identificador_reservatorio_amortecimento', 'nm_reservatorio', 'qt_volume_maximo_capacidade', 'nm_curso_dagua', 'dc_legenda', 'qt_area', 'nm_bacia_hidrografica', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_reservatorio_amortecimento_ponto', 'cd_identificador_original', 'tx_tipo_reservatorio', 'cd_reservatorio', 'tx_status_reservatorio', 'qt_volume_metro', 'qt_area_metro', 'tx_tipo_esgotamento', 'nm_reservatorio', 'nm_subprefeitura', 'nm_endereco', 'cd_identificador_objeto', 'tx_caracteristica', 'nm_corrego', 'ge_ponto', 'dt_atualizacao', 'geometry']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2885,37 +2881,37 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>reservatorio_amortecimento_ponto</t>
+          <t>risco_hidrologico</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_reservatorio_amortecimento_ponto": "int"}, {"cd_identificador_original": "int"}, {"tx_tipo_reservatorio": "string"}, {"cd_reservatorio": "string"}, {"tx_status_reservatorio": "string"}, {"qt_volume_metro": "number"}, {"qt_area_metro": "number"}, {"tx_tipo_esgotamento": "string"}, {"nm_reservatorio": "string"}, {"nm_subprefeitura": "string"}, {"nm_endereco": "string"}, {"cd_identificador_objeto": "int"}, {"tx_caracteristica": "string"}, {"nm_corrego": "string"}, {"ge_ponto": "Point"}, {"dt_atualizacao": "date"}]</t>
+          <t>[{"cd_identificador_risco_hidrologico": "int"}, {"nm_area_risco_hidrologico": "string"}, {"tx_grau_risco_hidrologico": "string"}, {"sg_area_risco_hidrologico": "string"}, {"sg_setor_risco_hidrologico": "string"}, {"tx_tipo_processo": "string"}, {"dt_vistoria": "date"}, {"qt_moradia": "int"}, {"nm_subprefeitura": "string"}, {"nm_bacia_hidrografica": "string"}, {"ge_poligono": "Polygon"}]</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['cd_identificador_reservatorio_amortecimento_ponto', 'cd_identificador_original', 'tx_tipo_reservatorio', 'cd_reservatorio', 'tx_status_reservatorio', 'qt_volume_metro', 'qt_area_metro', 'tx_tipo_esgotamento', 'nm_reservatorio', 'nm_subprefeitura', 'nm_endereco', 'cd_identificador_objeto', 'tx_caracteristica', 'nm_corrego', 'ge_ponto', 'dt_atualizacao', 'geometry']</t>
+          <t>['cd_identificador_risco_hidrologico', 'nm_area_risco_hidrologico', 'tx_grau_risco_hidrologico', 'sg_area_risco_hidrologico', 'sg_setor_risco_hidrologico', 'tx_tipo_processo', 'dt_vistoria', 'qt_moradia', 'nm_subprefeitura', 'nm_bacia_hidrografica', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cd_identificador_reservatorio_amortecimento_ponto</t>
+          <t>cd_identificador_risco_hidrologico</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>cd_identificador_reservatorio_amortecimento_ponto</t>
+          <t>cd_identificador_risco_hidrologico</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['cd_identificador_reservatorio_amortecimento_ponto', 'cd_identificador_original', 'tx_tipo_reservatorio', 'cd_reservatorio', 'tx_status_reservatorio', 'qt_volume_metro', 'qt_area_metro', 'tx_tipo_esgotamento', 'nm_reservatorio', 'nm_subprefeitura', 'nm_endereco', 'cd_identificador_objeto', 'tx_caracteristica', 'nm_corrego', 'ge_ponto', 'dt_atualizacao', 'geometry']</t>
+          <t>['cd_identificador_risco_hidrologico', 'nm_area_risco_hidrologico', 'tx_grau_risco_hidrologico', 'sg_area_risco_hidrologico', 'sg_setor_risco_hidrologico', 'tx_tipo_processo', 'dt_vistoria', 'qt_moradia', 'nm_subprefeitura', 'nm_bacia_hidrografica', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2926,37 +2922,41 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>risco_hidrologico</t>
+          <t>risco_ocorrencia_alagamento</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_risco_hidrologico": "int"}, {"nm_area_risco_hidrologico": "string"}, {"tx_grau_risco_hidrologico": "string"}, {"sg_area_risco_hidrologico": "string"}, {"sg_setor_risco_hidrologico": "string"}, {"tx_tipo_processo": "string"}, {"dt_vistoria": "date"}, {"qt_moradia": "int"}, {"nm_subprefeitura": "string"}, {"nm_bacia_hidrografica": "string"}, {"ge_poligono": "Polygon"}]</t>
+          <t>[{"cd_identificador": "string"}, {"dt_ocorrencia": "date"}, {"dc_tipo_ocorrencia": "string"}, {"nm_distrito": "string"}, {"ge_ponto": "Point"}, {"dt_carga": "date"}, {"nm_subprefeitura": "string"}, {"sg_fonte_original": "string"}]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['cd_identificador_risco_hidrologico', 'nm_area_risco_hidrologico', 'tx_grau_risco_hidrologico', 'sg_area_risco_hidrologico', 'sg_setor_risco_hidrologico', 'tx_tipo_processo', 'dt_vistoria', 'qt_moradia', 'nm_subprefeitura', 'nm_bacia_hidrografica', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>cd_identificador_risco_hidrologico</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+          <t>cd_identificador</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>{'cd_identificador': 'cd_identificador_risco_ocorrencia_alagamento'}</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>cd_identificador_risco_hidrologico</t>
+          <t>cd_identificador_risco_ocorrencia_alagamento</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['cd_identificador_risco_hidrologico', 'nm_area_risco_hidrologico', 'tx_grau_risco_hidrologico', 'sg_area_risco_hidrologico', 'sg_setor_risco_hidrologico', 'tx_tipo_processo', 'dt_vistoria', 'qt_moradia', 'nm_subprefeitura', 'nm_bacia_hidrografica', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_risco_ocorrencia_alagamento', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2967,11 +2967,11 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>risco_ocorrencia_alagamento</t>
+          <t>risco_ocorrencia_deslizamento</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_risco_ocorrencia_alagamento'}</t>
+          <t>{'cd_identificador': 'cd_identificador_risco_ocorrencia_deslizamento'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>cd_identificador_risco_ocorrencia_alagamento</t>
+          <t>cd_identificador_risco_ocorrencia_deslizamento</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['cd_identificador_risco_ocorrencia_alagamento', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
+          <t>['cd_identificador_risco_ocorrencia_deslizamento', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3012,11 +3012,11 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>risco_ocorrencia_deslizamento</t>
+          <t>risco_ocorrencia_inundacao</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3036,17 +3036,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_risco_ocorrencia_deslizamento'}</t>
+          <t>{'cd_identificador': 'cd_identificador_risco_ocorrencia_inundacao'}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>cd_identificador_risco_ocorrencia_deslizamento</t>
+          <t>cd_identificador_risco_ocorrencia_inundacao</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['cd_identificador_risco_ocorrencia_deslizamento', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
+          <t>['cd_identificador_risco_ocorrencia_inundacao', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3057,11 +3057,11 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>risco_ocorrencia_inundacao</t>
+          <t>risco_ocorrencia_queda_arvore</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3081,17 +3081,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_risco_ocorrencia_inundacao'}</t>
+          <t>{'cd_identificador': 'cd_identificador_risco_ocorrencia_queda_arvore'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>cd_identificador_risco_ocorrencia_inundacao</t>
+          <t>cd_identificador_risco_ocorrencia_queda_arvore</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['cd_identificador_risco_ocorrencia_inundacao', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
+          <t>['cd_identificador_risco_ocorrencia_queda_arvore', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3102,11 +3102,11 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>risco_ocorrencia_queda_arvore</t>
+          <t>risco_ocorrencia_risco_deslizamento</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3126,17 +3126,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_risco_ocorrencia_queda_arvore'}</t>
+          <t>{'cd_identificador': 'cd_identificador_risco_ocorrencia_risco_deslizamento'}</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>cd_identificador_risco_ocorrencia_queda_arvore</t>
+          <t>cd_identificador_risco_ocorrencia_risco_deslizamento</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['cd_identificador_risco_ocorrencia_queda_arvore', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
+          <t>['cd_identificador_risco_ocorrencia_risco_deslizamento', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3147,21 +3147,21 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>risco_ocorrencia_risco_deslizamento</t>
+          <t>sac_ausencia_coleta_conteiner_coleta_seletiva</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[{"cd_identificador": "string"}, {"dt_ocorrencia": "date"}, {"dc_tipo_ocorrencia": "string"}, {"nm_distrito": "string"}, {"ge_ponto": "Point"}, {"dt_carga": "date"}, {"nm_subprefeitura": "string"}, {"sg_fonte_original": "string"}]</t>
+          <t>[{"cd_identificador": "int"}, {"cd_identificador_original_atendimento_cidadao": "int"}, {"dt_abertura": "date-time"}, {"nm_logradouro": "string"}, {"nr_logradouro": "number"}, {"dt_parecer": "date-time"}, {"ge_ponto": "Point"}, {"sg_orgao_responsavel": "string"}, {"tx_situacao_solicitacao": "string"}, {"tx_canal_atendimento": "string"}, {"dc_tema": "string"}, {"dc_assunto": "string"}, {"dc_servico": "string"}, {"dt_carga": "date"}]</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['cd_identificador', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
+          <t>['cd_identificador', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3171,17 +3171,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_risco_ocorrencia_risco_deslizamento'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_ausencia_coleta_conteiner_coleta_seletiva'}</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>cd_identificador_risco_ocorrencia_risco_deslizamento</t>
+          <t>cd_identificador_sac_ausencia_coleta_conteiner_coleta_seletiva</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['cd_identificador_risco_ocorrencia_risco_deslizamento', 'dt_ocorrencia', 'dc_tipo_ocorrencia', 'nm_distrito', 'ge_ponto', 'dt_carga', 'nm_subprefeitura', 'sg_fonte_original', 'geometry']</t>
+          <t>['cd_identificador_sac_ausencia_coleta_conteiner_coleta_seletiva', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3192,11 +3192,11 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sac_ausencia_coleta_conteiner_coleta_seletiva</t>
+          <t>sac_capinacao_guia_sarjeta</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3216,17 +3216,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_ausencia_coleta_conteiner_coleta_seletiva'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_capinacao_guia_sarjeta'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_ausencia_coleta_conteiner_coleta_seletiva</t>
+          <t>cd_identificador_sac_capinacao_guia_sarjeta</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_ausencia_coleta_conteiner_coleta_seletiva', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_capinacao_guia_sarjeta', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3237,11 +3237,11 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>sac_capinacao_guia_sarjeta</t>
+          <t>sac_cata_bagulho</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3261,17 +3261,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_capinacao_guia_sarjeta'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_cata_bagulho'}</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_capinacao_guia_sarjeta</t>
+          <t>cd_identificador_sac_cata_bagulho</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_capinacao_guia_sarjeta', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_cata_bagulho', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3282,11 +3282,11 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sac_cata_bagulho</t>
+          <t>sac_conserto_lixeira</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3306,17 +3306,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_cata_bagulho'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_conserto_lixeira'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_cata_bagulho</t>
+          <t>cd_identificador_sac_conserto_lixeira</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_cata_bagulho', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_conserto_lixeira', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3327,11 +3327,11 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>sac_conserto_lixeira</t>
+          <t>sac_conteiner</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3351,17 +3351,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_conserto_lixeira'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_conteiner'}</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_conserto_lixeira</t>
+          <t>cd_identificador_sac_conteiner</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_conserto_lixeira', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_conteiner', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3372,11 +3372,11 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sac_conteiner</t>
+          <t>sac_erosao_urgencia</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3396,17 +3396,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_conteiner'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_erosao_urgencia'}</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_conteiner</t>
+          <t>cd_identificador_sac_erosao_urgencia</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_conteiner', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_erosao_urgencia', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3417,11 +3417,11 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sac_erosao_urgencia</t>
+          <t>sac_falta_varricao</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3441,17 +3441,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_erosao_urgencia'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_falta_varricao'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_erosao_urgencia</t>
+          <t>cd_identificador_sac_falta_varricao</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_erosao_urgencia', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_falta_varricao', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3462,11 +3462,11 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sac_falta_varricao</t>
+          <t>sac_implantacao_coleta_porta_porta</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3486,17 +3486,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_falta_varricao'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_implantacao_coleta_porta_porta'}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_falta_varricao</t>
+          <t>cd_identificador_sac_implantacao_coleta_porta_porta</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_falta_varricao', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_implantacao_coleta_porta_porta', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3507,11 +3507,11 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sac_implantacao_coleta_porta_porta</t>
+          <t>sac_instalacao_conteiner_coleta_seletiva</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3531,17 +3531,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_implantacao_coleta_porta_porta'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_instalacao_conteiner_coleta_seletiva'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_implantacao_coleta_porta_porta</t>
+          <t>cd_identificador_sac_instalacao_conteiner_coleta_seletiva</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_implantacao_coleta_porta_porta', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_instalacao_conteiner_coleta_seletiva', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3552,11 +3552,11 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sac_instalacao_conteiner_coleta_seletiva</t>
+          <t>sac_lavagem_especial</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3576,17 +3576,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_instalacao_conteiner_coleta_seletiva'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_lavagem_especial'}</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_instalacao_conteiner_coleta_seletiva</t>
+          <t>cd_identificador_sac_lavagem_especial</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_instalacao_conteiner_coleta_seletiva', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_lavagem_especial', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3597,11 +3597,11 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sac_lavagem_especial</t>
+          <t>sac_limpeza_bueiro</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3621,17 +3621,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_lavagem_especial'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_limpeza_bueiro'}</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_lavagem_especial</t>
+          <t>cd_identificador_sac_limpeza_bueiro</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_lavagem_especial', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_limpeza_bueiro', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3642,11 +3642,11 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>sac_limpeza_bueiro</t>
+          <t>sac_limpeza_enchente_evento</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3666,17 +3666,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_limpeza_bueiro'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_limpeza_enchente_evento'}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_limpeza_bueiro</t>
+          <t>cd_identificador_sac_limpeza_enchente_evento</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_limpeza_bueiro', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_limpeza_enchente_evento', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3687,11 +3687,11 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sac_limpeza_enchente_evento</t>
+          <t>sac_manutencao_conteiner_residuo_servico_saude</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_limpeza_enchente_evento'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_manutencao_conteiner_residuo_servico_saude'}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_limpeza_enchente_evento</t>
+          <t>cd_identificador_sac_manutencao_conteiner_residuo_servico_saude</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_limpeza_enchente_evento', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_manutencao_conteiner_residuo_servico_saude', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3732,11 +3732,11 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sac_manutencao_conteiner_residuo_servico_saude</t>
+          <t>sac_quadra_arvore_urgencia</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3756,17 +3756,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_manutencao_conteiner_residuo_servico_saude'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_quadra_arvore_urgencia'}</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_manutencao_conteiner_residuo_servico_saude</t>
+          <t>cd_identificador_sac_quadra_arvore_urgencia</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_manutencao_conteiner_residuo_servico_saude', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_quadra_arvore_urgencia', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3777,11 +3777,11 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sac_quadra_arvore_urgencia</t>
+          <t>sac_quadra_galho_urgencia</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3801,17 +3801,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_quadra_arvore_urgencia'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_quadra_galho_urgencia'}</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_quadra_arvore_urgencia</t>
+          <t>cd_identificador_sac_quadra_galho_urgencia</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_quadra_arvore_urgencia', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_quadra_galho_urgencia', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3822,11 +3822,11 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>sac_quadra_galho_urgencia</t>
+          <t>sac_reclamacao_coleta_lixo_domiciliar</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_quadra_galho_urgencia'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_reclamacao_coleta_lixo_domiciliar'}</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_quadra_galho_urgencia</t>
+          <t>cd_identificador_sac_reclamacao_coleta_lixo_domiciliar</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_quadra_galho_urgencia', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_reclamacao_coleta_lixo_domiciliar', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3867,11 +3867,11 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>sac_reclamacao_coleta_lixo_domiciliar</t>
+          <t>sac_reclamacao_coleta_residuo_servico_saude</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3891,17 +3891,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_reclamacao_coleta_lixo_domiciliar'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_reclamacao_coleta_residuo_servico_saude'}</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_reclamacao_coleta_lixo_domiciliar</t>
+          <t>cd_identificador_sac_reclamacao_coleta_residuo_servico_saude</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_reclamacao_coleta_lixo_domiciliar', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_reclamacao_coleta_residuo_servico_saude', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3912,11 +3912,11 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>sac_reclamacao_coleta_residuo_servico_saude</t>
+          <t>sac_reclamacao_coleta_seletiva</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_reclamacao_coleta_residuo_servico_saude'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_reclamacao_coleta_seletiva'}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_reclamacao_coleta_residuo_servico_saude</t>
+          <t>cd_identificador_sac_reclamacao_coleta_seletiva</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_reclamacao_coleta_residuo_servico_saude', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_reclamacao_coleta_seletiva', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3957,11 +3957,11 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sac_reclamacao_coleta_seletiva</t>
+          <t>sac_reclamacao_falta_lavagem_calcadao</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3981,17 +3981,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_reclamacao_coleta_seletiva'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_reclamacao_falta_lavagem_calcadao'}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_reclamacao_coleta_seletiva</t>
+          <t>cd_identificador_sac_reclamacao_falta_lavagem_calcadao</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_reclamacao_coleta_seletiva', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_reclamacao_falta_lavagem_calcadao', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4002,11 +4002,11 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>sac_reclamacao_falta_lavagem_calcadao</t>
+          <t>sac_reclamacao_falta_limpeza_ruas_feira</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4026,17 +4026,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_reclamacao_falta_lavagem_calcadao'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_reclamacao_falta_limpeza_ruas_feira'}</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_reclamacao_falta_lavagem_calcadao</t>
+          <t>cd_identificador_sac_reclamacao_falta_limpeza_ruas_feira</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_reclamacao_falta_lavagem_calcadao', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_reclamacao_falta_limpeza_ruas_feira', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4047,11 +4047,11 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>sac_reclamacao_falta_limpeza_ruas_feira</t>
+          <t>sac_reformar_galeria_agua_chuva_pluvial</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4071,17 +4071,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_reclamacao_falta_limpeza_ruas_feira'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_reformar_galeria_agua_chuva_pluvial'}</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_reclamacao_falta_limpeza_ruas_feira</t>
+          <t>cd_identificador_sac_reformar_galeria_agua_chuva_pluvial</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_reclamacao_falta_limpeza_ruas_feira', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_reformar_galeria_agua_chuva_pluvial', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4092,11 +4092,11 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>sac_reformar_galeria_agua_chuva_pluvial</t>
+          <t>sac_remocao_conteiner_coleta_lixo_domiciliar</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4116,17 +4116,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_reformar_galeria_agua_chuva_pluvial'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_remocao_conteiner_coleta_lixo_domiciliar'}</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_reformar_galeria_agua_chuva_pluvial</t>
+          <t>cd_identificador_sac_remocao_conteiner_coleta_lixo_domiciliar</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_reformar_galeria_agua_chuva_pluvial', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_remocao_conteiner_coleta_lixo_domiciliar', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4137,11 +4137,11 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sac_remocao_conteiner_coleta_lixo_domiciliar</t>
+          <t>sac_remocao_conteiner_coleta_seletiva</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4161,17 +4161,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_remocao_conteiner_coleta_lixo_domiciliar'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_remocao_conteiner_coleta_seletiva'}</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_remocao_conteiner_coleta_lixo_domiciliar</t>
+          <t>cd_identificador_sac_remocao_conteiner_coleta_seletiva</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_remocao_conteiner_coleta_lixo_domiciliar', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_remocao_conteiner_coleta_seletiva', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4182,11 +4182,11 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sac_remocao_conteiner_coleta_seletiva</t>
+          <t>sac_remocao_entulho</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4206,17 +4206,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_remocao_conteiner_coleta_seletiva'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_remocao_entulho'}</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_remocao_conteiner_coleta_seletiva</t>
+          <t>cd_identificador_sac_remocao_entulho</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_remocao_conteiner_coleta_seletiva', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_remocao_entulho', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4227,11 +4227,11 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>sac_remocao_entulho</t>
+          <t>sac_remocao_grande_objeto</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4251,17 +4251,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_remocao_entulho'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_remocao_grande_objeto'}</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_remocao_entulho</t>
+          <t>cd_identificador_sac_remocao_grande_objeto</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_remocao_entulho', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_remocao_grande_objeto', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4272,11 +4272,11 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>sac_remocao_grande_objeto</t>
+          <t>sac_remocao_lixeira</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4296,17 +4296,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_remocao_grande_objeto'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_remocao_lixeira'}</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_remocao_grande_objeto</t>
+          <t>cd_identificador_sac_remocao_lixeira</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_remocao_grande_objeto', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_remocao_lixeira', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4317,11 +4317,11 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>sac_remocao_lixeira</t>
+          <t>sac_remocao_saco_varricao</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4341,17 +4341,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_remocao_lixeira'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_remocao_saco_varricao'}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_remocao_lixeira</t>
+          <t>cd_identificador_sac_remocao_saco_varricao</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_remocao_lixeira', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_remocao_saco_varricao', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4362,11 +4362,11 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>sac_remocao_saco_varricao</t>
+          <t>sac_rompimento_galeria_agua_pluvial</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4386,17 +4386,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_remocao_saco_varricao'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_rompimento_galeria_agua_pluvial'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_remocao_saco_varricao</t>
+          <t>cd_identificador_sac_rompimento_galeria_agua_pluvial</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_remocao_saco_varricao', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_rompimento_galeria_agua_pluvial', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4407,11 +4407,11 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>sac_rompimento_galeria_agua_pluvial</t>
+          <t>sac_selo_identificacao_estabelecimento_gerador_residuo</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_rompimento_galeria_agua_pluvial'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_selo_identificacao_estabelecimento_gerador_residuo'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_rompimento_galeria_agua_pluvial</t>
+          <t>cd_identificador_sac_selo_identificacao_estabelecimento_gerador_residuo</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_rompimento_galeria_agua_pluvial', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_selo_identificacao_estabelecimento_gerador_residuo', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4452,11 +4452,11 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>sac_selo_identificacao_estabelecimento_gerador_residuo</t>
+          <t>sac_solicitacao_manutencao_conteiner_coleta_seletiva</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4476,17 +4476,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_selo_identificacao_estabelecimento_gerador_residuo'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_solicitacao_manutencao_conteiner_coleta_seletiva'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_selo_identificacao_estabelecimento_gerador_residuo</t>
+          <t>cd_identificador_sac_solicitacao_manutencao_conteiner_coleta_seletiva</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_selo_identificacao_estabelecimento_gerador_residuo', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_solicitacao_manutencao_conteiner_coleta_seletiva', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4497,11 +4497,11 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>sac_solicitacao_manutencao_conteiner_coleta_seletiva</t>
+          <t>sac_sugestao_obra_drenagem_corrego</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4521,17 +4521,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_solicitacao_manutencao_conteiner_coleta_seletiva'}</t>
+          <t>{'cd_identificador': 'cd_identificador_sac_sugestao_obra_drenagem_corrego'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_solicitacao_manutencao_conteiner_coleta_seletiva</t>
+          <t>cd_identificador_sac_sugestao_obra_drenagem_corrego</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_solicitacao_manutencao_conteiner_coleta_seletiva', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_sac_sugestao_obra_drenagem_corrego', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4542,41 +4542,37 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>sac_sugestao_obra_drenagem_corrego</t>
+          <t>servico_divisivel_agrupamento</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[{"cd_identificador": "int"}, {"cd_identificador_original_atendimento_cidadao": "int"}, {"dt_abertura": "date-time"}, {"nm_logradouro": "string"}, {"nr_logradouro": "number"}, {"dt_parecer": "date-time"}, {"ge_ponto": "Point"}, {"sg_orgao_responsavel": "string"}, {"tx_situacao_solicitacao": "string"}, {"tx_canal_atendimento": "string"}, {"dc_tema": "string"}, {"dc_assunto": "string"}, {"dc_servico": "string"}, {"dt_carga": "date"}]</t>
+          <t>[{"cd_identificador_servico_divisivel_agrupamento": "int"}, {"cd_identificador_original": "int"}, {"nm_empresa_concessionaria": "string"}, {"tx_link_consulta_coleta": "string"}, {"tx_link_acesso": "string"}, {"ge_poligono": "Polygon"}, {"tx_regiao_agrupamento": "string"}]</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>['cd_identificador', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_servico_divisivel_agrupamento', 'cd_identificador_original', 'nm_empresa_concessionaria', 'tx_link_consulta_coleta', 'tx_link_acesso', 'ge_poligono', 'tx_regiao_agrupamento', 'geometry']</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>cd_identificador</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>{'cd_identificador': 'cd_identificador_sac_sugestao_obra_drenagem_corrego'}</t>
-        </is>
-      </c>
+          <t>cd_identificador_servico_divisivel_agrupamento</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>cd_identificador_sac_sugestao_obra_drenagem_corrego</t>
+          <t>cd_identificador_servico_divisivel_agrupamento</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['cd_identificador_sac_sugestao_obra_drenagem_corrego', 'cd_identificador_original_atendimento_cidadao', 'dt_abertura', 'nm_logradouro', 'nr_logradouro', 'dt_parecer', 'ge_ponto', 'sg_orgao_responsavel', 'tx_situacao_solicitacao', 'tx_canal_atendimento', 'dc_tema', 'dc_assunto', 'dc_servico', 'dt_carga', 'geometry']</t>
+          <t>['cd_identificador_servico_divisivel_agrupamento', 'cd_identificador_original', 'nm_empresa_concessionaria', 'tx_link_consulta_coleta', 'tx_link_acesso', 'ge_poligono', 'tx_regiao_agrupamento', 'geometry']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4587,37 +4583,37 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>servico_divisivel_agrupamento</t>
+          <t>servico_varricao_lote_amlurb</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_servico_divisivel_agrupamento": "int"}, {"cd_identificador_original": "int"}, {"nm_empresa_concessionaria": "string"}, {"tx_link_consulta_coleta": "string"}, {"tx_link_acesso": "string"}, {"ge_poligono": "Polygon"}, {"tx_regiao_agrupamento": "string"}]</t>
+          <t>[{"cd_identificador_servico_varricao_lote_amlurb": "int"}, {"cd_identificador_original": "int"}, {"cd_lote_varricao": "string"}, {"nm_empresa": "string"}, {"tx_link_programacao_cata_bagulho": "string"}, {"tx_link_quantitativo": "string"}, {"ge_poligono": "Polygon"}]</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>['cd_identificador_servico_divisivel_agrupamento', 'cd_identificador_original', 'nm_empresa_concessionaria', 'tx_link_consulta_coleta', 'tx_link_acesso', 'ge_poligono', 'tx_regiao_agrupamento', 'geometry']</t>
+          <t>['cd_identificador_servico_varricao_lote_amlurb', 'cd_identificador_original', 'cd_lote_varricao', 'nm_empresa', 'tx_link_programacao_cata_bagulho', 'tx_link_quantitativo', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>cd_identificador_servico_divisivel_agrupamento</t>
+          <t>cd_identificador_servico_varricao_lote_amlurb</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>cd_identificador_servico_divisivel_agrupamento</t>
+          <t>cd_identificador_servico_varricao_lote_amlurb</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['cd_identificador_servico_divisivel_agrupamento', 'cd_identificador_original', 'nm_empresa_concessionaria', 'tx_link_consulta_coleta', 'tx_link_acesso', 'ge_poligono', 'tx_regiao_agrupamento', 'geometry']</t>
+          <t>['cd_identificador_servico_varricao_lote_amlurb', 'cd_identificador_original', 'cd_lote_varricao', 'nm_empresa', 'tx_link_programacao_cata_bagulho', 'tx_link_quantitativo', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4628,37 +4624,41 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>servico_varricao_lote_amlurb</t>
+          <t>setor_censitario_2010</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_servico_varricao_lote_amlurb": "int"}, {"cd_identificador_original": "int"}, {"cd_lote_varricao": "string"}, {"nm_empresa": "string"}, {"tx_link_programacao_cata_bagulho": "string"}, {"tx_link_quantitativo": "string"}, {"ge_poligono": "Polygon"}]</t>
+          <t>[{"cd_identificador": "string"}, {"cd_identificador_georreferenciamento": "string"}, {"qt_area_setor_censitario": "number"}, {"cd_original_setor_censitario": "string"}, {"an_censo_demografico": "number"}, {"ge_poligono": "Polygon"}]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>['cd_identificador_servico_varricao_lote_amlurb', 'cd_identificador_original', 'cd_lote_varricao', 'nm_empresa', 'tx_link_programacao_cata_bagulho', 'tx_link_quantitativo', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>cd_identificador_servico_varricao_lote_amlurb</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+          <t>cd_identificador</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>{'cd_identificador': 'cd_identificador_setor_censitario_2010'}</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>cd_identificador_servico_varricao_lote_amlurb</t>
+          <t>cd_identificador_setor_censitario_2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['cd_identificador_servico_varricao_lote_amlurb', 'cd_identificador_original', 'cd_lote_varricao', 'nm_empresa', 'tx_link_programacao_cata_bagulho', 'tx_link_quantitativo', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_setor_censitario_2010', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'geometry']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4669,21 +4669,21 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>setor_censitario_2010</t>
+          <t>setor_censitario_densidadedemografica</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[{"cd_identificador": "string"}, {"cd_identificador_georreferenciamento": "string"}, {"qt_area_setor_censitario": "number"}, {"cd_original_setor_censitario": "string"}, {"an_censo_demografico": "number"}, {"ge_poligono": "Polygon"}]</t>
+          <t>[{"cd_identificador": "string"}, {"cd_identificador_domicilio_censitario": "number"}, {"cd_identificador_densidade_demografica": "number"}, {"cd_identificador_georreferenciamento": "string"}, {"qt_area_setor_censitario": "number"}, {"cd_original_setor_censitario": "string"}, {"an_censo_demografico": "number"}, {"ge_poligono": "Polygon"}, {"cd_setor_censitario_domicilio": "string"}, {"qt_domicilio": "number"}, {"an_censo_domicilio": "number"}, {"cd_setor_censitario_vulnerabilidade": "string"}, {"cd_indice_vulnerabilidade_social": "number"}, {"an_vulnerabilidade_social": "number"}, {"cd_setor_censitario_densidade": "string"}, {"qt_populacao": "number"}, {"qt_area_hectare": "number"}, {"qt_habitante_hectare": "number"}, {"an_densidade_demografica": "number"}]</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>['cd_identificador', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador', 'cd_identificador_domicilio_censitario', 'cd_identificador_densidade_demografica', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'cd_setor_censitario_domicilio', 'qt_domicilio', 'an_censo_domicilio', 'cd_setor_censitario_vulnerabilidade', 'cd_indice_vulnerabilidade_social', 'an_vulnerabilidade_social', 'cd_setor_censitario_densidade', 'qt_populacao', 'qt_area_hectare', 'qt_habitante_hectare', 'an_densidade_demografica', 'geometry']</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4693,17 +4693,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_setor_censitario_2010'}</t>
+          <t>{'cd_identificador': 'cd_identificador_setor_censitario_densidadedemografica'}</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>cd_identificador_setor_censitario_2010</t>
+          <t>cd_identificador_setor_censitario_densidadedemografica</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['cd_identificador_setor_censitario_2010', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'geometry']</t>
+          <t>['cd_identificador_setor_censitario_densidadedemografica', 'cd_identificador_domicilio_censitario', 'cd_identificador_densidade_demografica', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'cd_setor_censitario_domicilio', 'qt_domicilio', 'an_censo_domicilio', 'cd_setor_censitario_vulnerabilidade', 'cd_indice_vulnerabilidade_social', 'an_vulnerabilidade_social', 'cd_setor_censitario_densidade', 'qt_populacao', 'qt_area_hectare', 'qt_habitante_hectare', 'an_densidade_demografica', 'geometry']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4714,21 +4714,21 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>setor_censitario_densidadedemografica</t>
+          <t>setor_censitario_vulnerabilidadesocial</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[{"cd_identificador": "string"}, {"cd_identificador_domicilio_censitario": "number"}, {"cd_identificador_densidade_demografica": "number"}, {"cd_identificador_georreferenciamento": "string"}, {"qt_area_setor_censitario": "number"}, {"cd_original_setor_censitario": "string"}, {"an_censo_demografico": "number"}, {"ge_poligono": "Polygon"}, {"cd_setor_censitario_domicilio": "string"}, {"qt_domicilio": "number"}, {"an_censo_domicilio": "number"}, {"cd_setor_censitario_vulnerabilidade": "string"}, {"cd_indice_vulnerabilidade_social": "number"}, {"an_vulnerabilidade_social": "number"}, {"cd_setor_censitario_densidade": "string"}, {"qt_populacao": "number"}, {"qt_area_hectare": "number"}, {"qt_habitante_hectare": "number"}, {"an_densidade_demografica": "number"}]</t>
+          <t>[{"cd_identificador": "string"}, {"cd_identificador_domicilio_censitario": "number"}, {"cd_identificador_vulnerabilidade_social": "number"}, {"cd_identificador_georreferenciamento": "string"}, {"qt_area_setor_censitario": "number"}, {"cd_original_setor_censitario": "string"}, {"an_censo_demografico": "number"}, {"ge_poligono": "Polygon"}, {"cd_setor_censitario_domicilio": "string"}, {"qt_domicilio": "number"}, {"an_censo_domicilio": "number"}, {"cd_setor_censitario_vulnerabilidade": "string"}, {"cd_indice_vulnerabilidade_social": "number"}, {"an_vulnerabilidade_social": "number"}, {"cd_setor_censitario_densidade": "string"}, {"qt_populacao": "number"}, {"qt_area_hectare": "number"}, {"qt_habitante_hectare": "number"}, {"an_densidade_demografica": "number"}]</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>['cd_identificador', 'cd_identificador_domicilio_censitario', 'cd_identificador_densidade_demografica', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'cd_setor_censitario_domicilio', 'qt_domicilio', 'an_censo_domicilio', 'cd_setor_censitario_vulnerabilidade', 'cd_indice_vulnerabilidade_social', 'an_vulnerabilidade_social', 'cd_setor_censitario_densidade', 'qt_populacao', 'qt_area_hectare', 'qt_habitante_hectare', 'an_densidade_demografica', 'geometry']</t>
+          <t>['cd_identificador', 'cd_identificador_domicilio_censitario', 'cd_identificador_vulnerabilidade_social', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'cd_setor_censitario_domicilio', 'qt_domicilio', 'an_censo_domicilio', 'cd_setor_censitario_vulnerabilidade', 'cd_indice_vulnerabilidade_social', 'an_vulnerabilidade_social', 'cd_setor_censitario_densidade', 'qt_populacao', 'qt_area_hectare', 'qt_habitante_hectare', 'an_densidade_demografica', 'geometry']</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4738,17 +4738,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_setor_censitario_densidadedemografica'}</t>
+          <t>{'cd_identificador': 'cd_identificador_setor_censitario_vulnerabilidadesocial'}</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>cd_identificador_setor_censitario_densidadedemografica</t>
+          <t>cd_identificador_setor_censitario_vulnerabilidadesocial</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['cd_identificador_setor_censitario_densidadedemografica', 'cd_identificador_domicilio_censitario', 'cd_identificador_densidade_demografica', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'cd_setor_censitario_domicilio', 'qt_domicilio', 'an_censo_domicilio', 'cd_setor_censitario_vulnerabilidade', 'cd_indice_vulnerabilidade_social', 'an_vulnerabilidade_social', 'cd_setor_censitario_densidade', 'qt_populacao', 'qt_area_hectare', 'qt_habitante_hectare', 'an_densidade_demografica', 'geometry']</t>
+          <t>['cd_identificador_setor_censitario_vulnerabilidadesocial', 'cd_identificador_domicilio_censitario', 'cd_identificador_vulnerabilidade_social', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'cd_setor_censitario_domicilio', 'qt_domicilio', 'an_censo_domicilio', 'cd_setor_censitario_vulnerabilidade', 'cd_indice_vulnerabilidade_social', 'an_vulnerabilidade_social', 'cd_setor_censitario_densidade', 'qt_populacao', 'qt_area_hectare', 'qt_habitante_hectare', 'an_densidade_demografica', 'geometry']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4759,123 +4759,123 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>setor_censitario_vulnerabilidadesocial</t>
+          <t>subprefeitura</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[{"cd_identificador": "string"}, {"cd_identificador_domicilio_censitario": "number"}, {"cd_identificador_vulnerabilidade_social": "number"}, {"cd_identificador_georreferenciamento": "string"}, {"qt_area_setor_censitario": "number"}, {"cd_original_setor_censitario": "string"}, {"an_censo_demografico": "number"}, {"ge_poligono": "Polygon"}, {"cd_setor_censitario_domicilio": "string"}, {"qt_domicilio": "number"}, {"an_censo_domicilio": "number"}, {"cd_setor_censitario_vulnerabilidade": "string"}, {"cd_indice_vulnerabilidade_social": "number"}, {"an_vulnerabilidade_social": "number"}, {"cd_setor_censitario_densidade": "string"}, {"qt_populacao": "number"}, {"qt_area_hectare": "number"}, {"qt_habitante_hectare": "number"}, {"an_densidade_demografica": "number"}]</t>
+          <t>[{"cd_identificador_subprefeitura": "number"}, {"ge_poligono": "Polygon"}, {"cd_subprefeitura": "string"}, {"nm_subprefeitura": "string"}, {"tx_escala": "string"}, {"sg_fonte_original": "string"}, {"dt_criacao": "date"}, {"cd_tipo_discrepancia": "int"}, {"dt_atualizacao": "date-time"}, {"cd_usuario_atualizacao": "string"}, {"sg_subprefeitura": "string"}, {"qt_area_quilometro": "number"}, {"qt_area_metro": "number"}]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>['cd_identificador', 'cd_identificador_domicilio_censitario', 'cd_identificador_vulnerabilidade_social', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'cd_setor_censitario_domicilio', 'qt_domicilio', 'an_censo_domicilio', 'cd_setor_censitario_vulnerabilidade', 'cd_indice_vulnerabilidade_social', 'an_vulnerabilidade_social', 'cd_setor_censitario_densidade', 'qt_populacao', 'qt_area_hectare', 'qt_habitante_hectare', 'an_densidade_demografica', 'geometry']</t>
+          <t>['cd_identificador_subprefeitura', 'ge_poligono', 'cd_subprefeitura', 'nm_subprefeitura', 'tx_escala', 'sg_fonte_original', 'dt_criacao', 'cd_tipo_discrepancia', 'dt_atualizacao', 'cd_usuario_atualizacao', 'sg_subprefeitura', 'qt_area_quilometro', 'qt_area_metro', 'geometry']</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>cd_identificador</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>{'cd_identificador': 'cd_identificador_setor_censitario_vulnerabilidadesocial'}</t>
-        </is>
-      </c>
+          <t>cd_identificador_subprefeitura</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>cd_identificador_setor_censitario_vulnerabilidadesocial</t>
+          <t>cd_identificador_subprefeitura</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['cd_identificador_setor_censitario_vulnerabilidadesocial', 'cd_identificador_domicilio_censitario', 'cd_identificador_vulnerabilidade_social', 'cd_identificador_georreferenciamento', 'qt_area_setor_censitario', 'cd_original_setor_censitario', 'an_censo_demografico', 'ge_poligono', 'cd_setor_censitario_domicilio', 'qt_domicilio', 'an_censo_domicilio', 'cd_setor_censitario_vulnerabilidade', 'cd_indice_vulnerabilidade_social', 'an_vulnerabilidade_social', 'cd_setor_censitario_densidade', 'qt_populacao', 'qt_area_hectare', 'qt_habitante_hectare', 'an_densidade_demografica', 'geometry']</t>
+          <t>['cd_identificador_subprefeitura', 'ge_poligono', 'cd_subprefeitura', 'nm_subprefeitura', 'tx_escala', 'sg_fonte_original', 'dt_criacao', 'cd_tipo_discrepancia', 'dt_atualizacao', 'cd_usuario_atualizacao', 'sg_subprefeitura', 'qt_area_quilometro', 'qt_area_metro', 'geometry']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>intersects</t>
+          <t>largest_intersection</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>subprefeitura</t>
+          <t>tratamento_residuo_solido_saude</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_subprefeitura": "number"}, {"ge_poligono": "Polygon"}, {"cd_subprefeitura": "string"}, {"nm_subprefeitura": "string"}, {"tx_escala": "string"}, {"sg_fonte_original": "string"}, {"dt_criacao": "date"}, {"cd_tipo_discrepancia": "int"}, {"dt_atualizacao": "date-time"}, {"cd_usuario_atualizacao": "string"}, {"sg_subprefeitura": "string"}, {"qt_area_quilometro": "number"}, {"qt_area_metro": "number"}]</t>
+          <t>[{"cd_identificador_tratamento_residuo_solido": "int"}, {"nm_endereco": "string"}, {"nm_operacao": "string"}, {"dt_atualizacao": "date"}, {"ge_ponto": "Point"}, {"nm_unidade": "string"}]</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>['cd_identificador_subprefeitura', 'ge_poligono', 'cd_subprefeitura', 'nm_subprefeitura', 'tx_escala', 'sg_fonte_original', 'dt_criacao', 'cd_tipo_discrepancia', 'dt_atualizacao', 'cd_usuario_atualizacao', 'sg_subprefeitura', 'qt_area_quilometro', 'qt_area_metro', 'geometry']</t>
+          <t>['cd_identificador_tratamento_residuo_solido', 'nm_endereco', 'nm_operacao', 'dt_atualizacao', 'ge_ponto', 'nm_unidade', 'geometry']</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>cd_identificador_subprefeitura</t>
+          <t>cd_identificador_tratamento_residuo_solido</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>cd_identificador_subprefeitura</t>
+          <t>cd_identificador_tratamento_residuo_solido</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['cd_identificador_subprefeitura', 'ge_poligono', 'cd_subprefeitura', 'nm_subprefeitura', 'tx_escala', 'sg_fonte_original', 'dt_criacao', 'cd_tipo_discrepancia', 'dt_atualizacao', 'cd_usuario_atualizacao', 'sg_subprefeitura', 'qt_area_quilometro', 'qt_area_metro', 'geometry']</t>
+          <t>['cd_identificador_tratamento_residuo_solido', 'nm_endereco', 'nm_operacao', 'dt_atualizacao', 'ge_ponto', 'nm_unidade', 'geometry']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>largest_intersection</t>
+          <t>intersects</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>tratamento_residuo_solido_saude</t>
+          <t>pde2014_v_parq_pde_map</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[{"cd_identificador_tratamento_residuo_solido": "int"}, {"nm_endereco": "string"}, {"nm_operacao": "string"}, {"dt_atualizacao": "date"}, {"ge_ponto": "Point"}, {"nm_unidade": "string"}]</t>
+          <t>[{"cd_identificador": "number"}, {"nm_parque_pde": "string"}, {"cd_parque_pde": "string"}, {"qt_area_perimetro_pde": "number"}, {"ge_poligono": "Polygon"}, {"cd_tipo_esfera_parque": "number"}, {"txt_tipo_esfera_parque": "string"}, {"txt_categoria_parque_pde": "string"}, {"cd_categoria_parque_pde": "number"}, {"cd_situacao_parque_pde": "number"}]</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>['cd_identificador_tratamento_residuo_solido', 'nm_endereco', 'nm_operacao', 'dt_atualizacao', 'ge_ponto', 'nm_unidade', 'geometry']</t>
+          <t>['cd_identificador', 'nm_parque_pde', 'cd_parque_pde', 'qt_area_perimetro_pde', 'ge_poligono', 'cd_tipo_esfera_parque', 'txt_tipo_esfera_parque', 'txt_categoria_parque_pde', 'cd_categoria_parque_pde', 'cd_situacao_parque_pde', 'geometry']</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>cd_identificador_tratamento_residuo_solido</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
+          <t>cd_identificador</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>{'cd_identificador': 'cd_identificador_pde2014_v_parq_pde_map'}</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>cd_identificador_tratamento_residuo_solido</t>
+          <t>cd_identificador_pde2014_v_parq_pde_map</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['cd_identificador_tratamento_residuo_solido', 'nm_endereco', 'nm_operacao', 'dt_atualizacao', 'ge_ponto', 'nm_unidade', 'geometry']</t>
+          <t>['cd_identificador_pde2014_v_parq_pde_map', 'nm_parque_pde', 'cd_parque_pde', 'qt_area_perimetro_pde', 'ge_poligono', 'cd_tipo_esfera_parque', 'txt_tipo_esfera_parque', 'txt_categoria_parque_pde', 'cd_categoria_parque_pde', 'cd_situacao_parque_pde', 'geometry']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -4886,21 +4886,21 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>pde2014_v_parq_pde_map</t>
+          <t>pde2014_v_zeis_04_map</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[{"cd_identificador": "number"}, {"nm_parque_pde": "string"}, {"cd_parque_pde": "string"}, {"qt_area_perimetro_pde": "number"}, {"ge_poligono": "Polygon"}, {"cd_tipo_esfera_parque": "number"}, {"txt_tipo_esfera_parque": "string"}, {"txt_categoria_parque_pde": "string"}, {"cd_categoria_parque_pde": "number"}, {"cd_situacao_parque_pde": "number"}]</t>
+          <t>[{"cd_identificador": "number"}, {"ge_poligono": "Polygon"}, {"tx_zoneamento_perimetro": "string"}, {"tx_observacao_perimetro": "string"}, {"cd_zoneamento_perimetro": "string"}, {"cd_prmr_pre": "string"}, {"cd_subprefeitura_perimetro": "string"}, {"cd_tipo_legislacao_zoneamento": "string"}, {"cd_numero_legislacao_zoneamento": "number"}, {"an_legislacao_zoneamento": "number"}]</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>['cd_identificador', 'nm_parque_pde', 'cd_parque_pde', 'qt_area_perimetro_pde', 'ge_poligono', 'cd_tipo_esfera_parque', 'txt_tipo_esfera_parque', 'txt_categoria_parque_pde', 'cd_categoria_parque_pde', 'cd_situacao_parque_pde', 'geometry']</t>
+          <t>['cd_identificador', 'ge_poligono', 'tx_zoneamento_perimetro', 'tx_observacao_perimetro', 'cd_zoneamento_perimetro', 'cd_prmr_pre', 'cd_subprefeitura_perimetro', 'cd_tipo_legislacao_zoneamento', 'cd_numero_legislacao_zoneamento', 'an_legislacao_zoneamento', 'geometry']</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4910,17 +4910,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_pde2014_v_parq_pde_map'}</t>
+          <t>{'cd_identificador': 'cd_identificador_pde2014_v_zeis_04_map'}</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>cd_identificador_pde2014_v_parq_pde_map</t>
+          <t>cd_identificador_pde2014_v_zeis_04_map</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['cd_identificador_pde2014_v_parq_pde_map', 'nm_parque_pde', 'cd_parque_pde', 'qt_area_perimetro_pde', 'ge_poligono', 'cd_tipo_esfera_parque', 'txt_tipo_esfera_parque', 'txt_categoria_parque_pde', 'cd_categoria_parque_pde', 'cd_situacao_parque_pde', 'geometry']</t>
+          <t>['cd_identificador_pde2014_v_zeis_04_map', 'ge_poligono', 'tx_zoneamento_perimetro', 'tx_observacao_perimetro', 'cd_zoneamento_perimetro', 'cd_prmr_pre', 'cd_subprefeitura_perimetro', 'cd_tipo_legislacao_zoneamento', 'cd_numero_legislacao_zoneamento', 'an_legislacao_zoneamento', 'geometry']</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -4931,11 +4931,11 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>pde2014_v_zeis_04_map</t>
+          <t>pde2014_v_zeis_04a_map</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4955,65 +4955,20 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>{'cd_identificador': 'cd_identificador_pde2014_v_zeis_04_map'}</t>
+          <t>{'cd_identificador': 'cd_identificador_pde2014_v_zeis_04a_map'}</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>cd_identificador_pde2014_v_zeis_04_map</t>
+          <t>cd_identificador_pde2014_v_zeis_04a_map</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['cd_identificador_pde2014_v_zeis_04_map', 'ge_poligono', 'tx_zoneamento_perimetro', 'tx_observacao_perimetro', 'cd_zoneamento_perimetro', 'cd_prmr_pre', 'cd_subprefeitura_perimetro', 'cd_tipo_legislacao_zoneamento', 'cd_numero_legislacao_zoneamento', 'an_legislacao_zoneamento', 'geometry']</t>
+          <t>['cd_identificador_pde2014_v_zeis_04a_map', 'ge_poligono', 'tx_zoneamento_perimetro', 'tx_observacao_perimetro', 'cd_zoneamento_perimetro', 'cd_prmr_pre', 'cd_subprefeitura_perimetro', 'cd_tipo_legislacao_zoneamento', 'cd_numero_legislacao_zoneamento', 'an_legislacao_zoneamento', 'geometry']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
-        <is>
-          <t>intersects</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>pde2014_v_zeis_04a_map</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>[{"cd_identificador": "number"}, {"ge_poligono": "Polygon"}, {"tx_zoneamento_perimetro": "string"}, {"tx_observacao_perimetro": "string"}, {"cd_zoneamento_perimetro": "string"}, {"cd_prmr_pre": "string"}, {"cd_subprefeitura_perimetro": "string"}, {"cd_tipo_legislacao_zoneamento": "string"}, {"cd_numero_legislacao_zoneamento": "number"}, {"an_legislacao_zoneamento": "number"}]</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>['cd_identificador', 'ge_poligono', 'tx_zoneamento_perimetro', 'tx_observacao_perimetro', 'cd_zoneamento_perimetro', 'cd_prmr_pre', 'cd_subprefeitura_perimetro', 'cd_tipo_legislacao_zoneamento', 'cd_numero_legislacao_zoneamento', 'an_legislacao_zoneamento', 'geometry']</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>cd_identificador</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>{'cd_identificador': 'cd_identificador_pde2014_v_zeis_04a_map'}</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>cd_identificador_pde2014_v_zeis_04a_map</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>['cd_identificador_pde2014_v_zeis_04a_map', 'ge_poligono', 'tx_zoneamento_perimetro', 'tx_observacao_perimetro', 'cd_zoneamento_perimetro', 'cd_prmr_pre', 'cd_subprefeitura_perimetro', 'cd_tipo_legislacao_zoneamento', 'cd_numero_legislacao_zoneamento', 'an_legislacao_zoneamento', 'geometry']</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
         <is>
           <t>intersects</t>
         </is>
